--- a/PTBR/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR/Lang/PTBR/Game/Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4297F5F-567B-435E-BFCA-B1685C36AE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A1846-40B6-43D0-AC6F-591227708A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1874">
   <si>
     <t>id</t>
   </si>
@@ -4352,6 +4352,1299 @@
   </si>
   <si>
     <t>Alpha 20.27</t>
+  </si>
+  <si>
+    <t>destruído</t>
+  </si>
+  <si>
+    <t>mutilado</t>
+  </si>
+  <si>
+    <t>inocente</t>
+  </si>
+  <si>
+    <t>ateu</t>
+  </si>
+  <si>
+    <t>preguiçoso</t>
+  </si>
+  <si>
+    <t>extinto</t>
+  </si>
+  <si>
+    <t>trapaceiro</t>
+  </si>
+  <si>
+    <t>aleijado</t>
+  </si>
+  <si>
+    <t>virtuoso</t>
+  </si>
+  <si>
+    <t>covarde</t>
+  </si>
+  <si>
+    <t>imundo</t>
+  </si>
+  <si>
+    <t>herege</t>
+  </si>
+  <si>
+    <t>sangue-frio</t>
+  </si>
+  <si>
+    <t>bêbado</t>
+  </si>
+  <si>
+    <t>merda</t>
+  </si>
+  <si>
+    <t>pervertido</t>
+  </si>
+  <si>
+    <t>atraente</t>
+  </si>
+  <si>
+    <t>celebridade,famoso</t>
+  </si>
+  <si>
+    <t>prostituta,vadia</t>
+  </si>
+  <si>
+    <t>estranho</t>
+  </si>
+  <si>
+    <t>inútil</t>
+  </si>
+  <si>
+    <t>belo</t>
+  </si>
+  <si>
+    <t>astuto</t>
+  </si>
+  <si>
+    <t>louco</t>
+  </si>
+  <si>
+    <t>grande,grandioso</t>
+  </si>
+  <si>
+    <t>sujo,imundo,negro</t>
+  </si>
+  <si>
+    <t>limpo</t>
+  </si>
+  <si>
+    <t>desperto</t>
+  </si>
+  <si>
+    <t>furioso</t>
+  </si>
+  <si>
+    <t>novíssimo,novo</t>
+  </si>
+  <si>
+    <t>puro,branco</t>
+  </si>
+  <si>
+    <t>nobre</t>
+  </si>
+  <si>
+    <t>sem nome</t>
+  </si>
+  <si>
+    <t>doente</t>
+  </si>
+  <si>
+    <t>alegre</t>
+  </si>
+  <si>
+    <t>misericordioso</t>
+  </si>
+  <si>
+    <t>agonizante</t>
+  </si>
+  <si>
+    <t>justo</t>
+  </si>
+  <si>
+    <t>sombrio</t>
+  </si>
+  <si>
+    <t>inteligente</t>
+  </si>
+  <si>
+    <t>angelical</t>
+  </si>
+  <si>
+    <t>resistente</t>
+  </si>
+  <si>
+    <t>ciumento</t>
+  </si>
+  <si>
+    <t>rancoroso</t>
+  </si>
+  <si>
+    <t>orgulhoso</t>
+  </si>
+  <si>
+    <t>gentil</t>
+  </si>
+  <si>
+    <t>triste</t>
+  </si>
+  <si>
+    <t>desesperado</t>
+  </si>
+  <si>
+    <t>quieto</t>
+  </si>
+  <si>
+    <t>melancólico</t>
+  </si>
+  <si>
+    <t>masoquista</t>
+  </si>
+  <si>
+    <t>agressivo</t>
+  </si>
+  <si>
+    <t>narcisista</t>
+  </si>
+  <si>
+    <t>maligno</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>delicado</t>
+  </si>
+  <si>
+    <t>arrogante</t>
+  </si>
+  <si>
+    <t>profundo</t>
+  </si>
+  <si>
+    <t>vingativo</t>
+  </si>
+  <si>
+    <t>amoroso</t>
+  </si>
+  <si>
+    <t>tranquilo</t>
+  </si>
+  <si>
+    <t>calmo</t>
+  </si>
+  <si>
+    <t>sereno</t>
+  </si>
+  <si>
+    <t>amigável</t>
+  </si>
+  <si>
+    <t>fofo</t>
+  </si>
+  <si>
+    <t>reto</t>
+  </si>
+  <si>
+    <t>doce</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>ardente</t>
+  </si>
+  <si>
+    <t>solene</t>
+  </si>
+  <si>
+    <t>velho</t>
+  </si>
+  <si>
+    <t>exilado</t>
+  </si>
+  <si>
+    <t>unido</t>
+  </si>
+  <si>
+    <t>ofensivo</t>
+  </si>
+  <si>
+    <t>repleto</t>
+  </si>
+  <si>
+    <t>curador</t>
+  </si>
+  <si>
+    <t>brilhante</t>
+  </si>
+  <si>
+    <t>corrupto</t>
+  </si>
+  <si>
+    <t>insano</t>
+  </si>
+  <si>
+    <t>faminto</t>
+  </si>
+  <si>
+    <t>prestativo</t>
+  </si>
+  <si>
+    <t>encantador</t>
+  </si>
+  <si>
+    <t>honesto</t>
+  </si>
+  <si>
+    <t>amável</t>
+  </si>
+  <si>
+    <t>majestoso</t>
+  </si>
+  <si>
+    <t>vermelho</t>
+  </si>
+  <si>
+    <t>preto</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>branco</t>
+  </si>
+  <si>
+    <t>roxo</t>
+  </si>
+  <si>
+    <t>congelante</t>
+  </si>
+  <si>
+    <t>perigoso</t>
+  </si>
+  <si>
+    <t>corajoso</t>
+  </si>
+  <si>
+    <t>errante</t>
+  </si>
+  <si>
+    <t>típico</t>
+  </si>
+  <si>
+    <t>podre</t>
+  </si>
+  <si>
+    <t>ambicioso</t>
+  </si>
+  <si>
+    <t>esperançoso</t>
+  </si>
+  <si>
+    <t>luxurioso</t>
+  </si>
+  <si>
+    <t>teimoso</t>
+  </si>
+  <si>
+    <t>deslumbrante</t>
+  </si>
+  <si>
+    <t>capaz</t>
+  </si>
+  <si>
+    <t>dependente</t>
+  </si>
+  <si>
+    <t>divino</t>
+  </si>
+  <si>
+    <t>fértil,empolgado</t>
+  </si>
+  <si>
+    <t>gordinho</t>
+  </si>
+  <si>
+    <t>suave</t>
+  </si>
+  <si>
+    <t>precioso</t>
+  </si>
+  <si>
+    <t>apático</t>
+  </si>
+  <si>
+    <t>entediado</t>
+  </si>
+  <si>
+    <t>antigo</t>
+  </si>
+  <si>
+    <t>impassível</t>
+  </si>
+  <si>
+    <t>travesso</t>
+  </si>
+  <si>
+    <t>tentáculo</t>
+  </si>
+  <si>
+    <t>quebrado</t>
+  </si>
+  <si>
+    <t>estúpido</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>fofinho</t>
+  </si>
+  <si>
+    <t>ex-multinacional</t>
+  </si>
+  <si>
+    <t>atrevido</t>
+  </si>
+  <si>
+    <t>nervoso</t>
+  </si>
+  <si>
+    <t>encurralado</t>
+  </si>
+  <si>
+    <t>monstruoso</t>
+  </si>
+  <si>
+    <t>trabalhador</t>
+  </si>
+  <si>
+    <t>apaixonado</t>
+  </si>
+  <si>
+    <t>sábio</t>
+  </si>
+  <si>
+    <t>manipulador</t>
+  </si>
+  <si>
+    <t>maternal</t>
+  </si>
+  <si>
+    <t>insistente,fácil de persuadir</t>
+  </si>
+  <si>
+    <t>fraco de vontade</t>
+  </si>
+  <si>
+    <t>tentador</t>
+  </si>
+  <si>
+    <t>altruísta</t>
+  </si>
+  <si>
+    <t>enganado,trapaceado</t>
+  </si>
+  <si>
+    <t>desesperançado</t>
+  </si>
+  <si>
+    <t>corno,traído</t>
+  </si>
+  <si>
+    <t>cantor</t>
+  </si>
+  <si>
+    <t>camponês,agricultor</t>
+  </si>
+  <si>
+    <t>idiota</t>
+  </si>
+  <si>
+    <t>companheiro</t>
+  </si>
+  <si>
+    <t>aventureiro</t>
+  </si>
+  <si>
+    <t>andarilho</t>
+  </si>
+  <si>
+    <t>viajante</t>
+  </si>
+  <si>
+    <t>criminoso</t>
+  </si>
+  <si>
+    <t>pecador</t>
+  </si>
+  <si>
+    <t>mendigo</t>
+  </si>
+  <si>
+    <t>ermitão</t>
+  </si>
+  <si>
+    <t>monstro</t>
+  </si>
+  <si>
+    <t>sofredor</t>
+  </si>
+  <si>
+    <t>canalha</t>
+  </si>
+  <si>
+    <t>vadia,prostituta</t>
+  </si>
+  <si>
+    <t>santo</t>
+  </si>
+  <si>
+    <t>fantasma</t>
+  </si>
+  <si>
+    <t>espírito</t>
+  </si>
+  <si>
+    <t>colono</t>
+  </si>
+  <si>
+    <t>dama</t>
+  </si>
+  <si>
+    <t>menina</t>
+  </si>
+  <si>
+    <t>sacerdote</t>
+  </si>
+  <si>
+    <t>salvador</t>
+  </si>
+  <si>
+    <t>garota jovem</t>
+  </si>
+  <si>
+    <t>garoto jovem</t>
+  </si>
+  <si>
+    <t>poeta</t>
+  </si>
+  <si>
+    <t>dançarino</t>
+  </si>
+  <si>
+    <t>curandeiro</t>
+  </si>
+  <si>
+    <t>planta</t>
+  </si>
+  <si>
+    <t>erudito</t>
+  </si>
+  <si>
+    <t>pedregulho</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>guerreiro</t>
+  </si>
+  <si>
+    <t>cavaleiro</t>
+  </si>
+  <si>
+    <t>espião</t>
+  </si>
+  <si>
+    <t>assassino</t>
+  </si>
+  <si>
+    <t>escravo</t>
+  </si>
+  <si>
+    <t>mago</t>
+  </si>
+  <si>
+    <t>bruxa</t>
+  </si>
+  <si>
+    <t>ladrão</t>
+  </si>
+  <si>
+    <t>mercenário</t>
+  </si>
+  <si>
+    <t>bardo</t>
+  </si>
+  <si>
+    <t>bárbaro furioso</t>
+  </si>
+  <si>
+    <t>mineiro</t>
+  </si>
+  <si>
+    <t>herói</t>
+  </si>
+  <si>
+    <t>campeão</t>
+  </si>
+  <si>
+    <t>caçador</t>
+  </si>
+  <si>
+    <t>monge</t>
+  </si>
+  <si>
+    <t>pirata</t>
+  </si>
+  <si>
+    <t>buscador</t>
+  </si>
+  <si>
+    <t>defensor</t>
+  </si>
+  <si>
+    <t>usurpador</t>
+  </si>
+  <si>
+    <t>alquimista</t>
+  </si>
+  <si>
+    <t>bárbaro</t>
+  </si>
+  <si>
+    <t>profeta</t>
+  </si>
+  <si>
+    <t>batedor</t>
+  </si>
+  <si>
+    <t>traidor</t>
+  </si>
+  <si>
+    <t>mercador</t>
+  </si>
+  <si>
+    <t>pastor</t>
+  </si>
+  <si>
+    <t>paladino</t>
+  </si>
+  <si>
+    <t>patrulheiro</t>
+  </si>
+  <si>
+    <t>necromante</t>
+  </si>
+  <si>
+    <t>anjo</t>
+  </si>
+  <si>
+    <t>demônio,diabo</t>
+  </si>
+  <si>
+    <t>arqueiro</t>
+  </si>
+  <si>
+    <t>duelista</t>
+  </si>
+  <si>
+    <t>espadachim</t>
+  </si>
+  <si>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>marinheiro</t>
+  </si>
+  <si>
+    <t>soldado</t>
+  </si>
+  <si>
+    <t>máquina</t>
+  </si>
+  <si>
+    <t>querido</t>
+  </si>
+  <si>
+    <t>viúva</t>
+  </si>
+  <si>
+    <t>arqueólogo</t>
+  </si>
+  <si>
+    <t>homem</t>
+  </si>
+  <si>
+    <t>mulher</t>
+  </si>
+  <si>
+    <t>vampiro</t>
+  </si>
+  <si>
+    <t>donzela</t>
+  </si>
+  <si>
+    <t>dispositivo mágico</t>
+  </si>
+  <si>
+    <t>bastardo</t>
+  </si>
+  <si>
+    <t>menino</t>
+  </si>
+  <si>
+    <t>o vazio</t>
+  </si>
+  <si>
+    <t>algum lugar</t>
+  </si>
+  <si>
+    <t>uma floresta profunda</t>
+  </si>
+  <si>
+    <t>uma montanha</t>
+  </si>
+  <si>
+    <t>uma vila triste</t>
+  </si>
+  <si>
+    <t>um paraíso</t>
+  </si>
+  <si>
+    <t>uma área rural</t>
+  </si>
+  <si>
+    <t>uma vila isolada</t>
+  </si>
+  <si>
+    <t>uma terra abandonada</t>
+  </si>
+  <si>
+    <t>uma terra esquecida</t>
+  </si>
+  <si>
+    <t>um ermo</t>
+  </si>
+  <si>
+    <t>um local proibido</t>
+  </si>
+  <si>
+    <t>o Vale da Dor</t>
+  </si>
+  <si>
+    <t>Norte de Tyris</t>
+  </si>
+  <si>
+    <t>Sul de Tyris</t>
+  </si>
+  <si>
+    <t>uma terra estrangeira</t>
+  </si>
+  <si>
+    <t>o leste</t>
+  </si>
+  <si>
+    <t>o oeste</t>
+  </si>
+  <si>
+    <t>uma cidade vibrante</t>
+  </si>
+  <si>
+    <t>caverna</t>
+  </si>
+  <si>
+    <t>igreja</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>casa abandonada</t>
+  </si>
+  <si>
+    <t>rua</t>
+  </si>
+  <si>
+    <t>lixão</t>
+  </si>
+  <si>
+    <t>estalagem</t>
+  </si>
+  <si>
+    <t>beira do rio</t>
+  </si>
+  <si>
+    <t>porão</t>
+  </si>
+  <si>
+    <t>lugar escuro</t>
+  </si>
+  <si>
+    <t>armazém</t>
+  </si>
+  <si>
+    <t>cemitério</t>
+  </si>
+  <si>
+    <t>celeiro</t>
+  </si>
+  <si>
+    <t>poço</t>
+  </si>
+  <si>
+    <t>barril</t>
+  </si>
+  <si>
+    <t>banheiro</t>
+  </si>
+  <si>
+    <t>prisão</t>
+  </si>
+  <si>
+    <t>parque</t>
+  </si>
+  <si>
+    <t>porto</t>
+  </si>
+  <si>
+    <t>sombra de árvore</t>
+  </si>
+  <si>
+    <t>bordel</t>
+  </si>
+  <si>
+    <t>beco</t>
+  </si>
+  <si>
+    <t>arbusto</t>
+  </si>
+  <si>
+    <t>jardim</t>
+  </si>
+  <si>
+    <t>torre</t>
+  </si>
+  <si>
+    <t>ninho de pássaro</t>
+  </si>
+  <si>
+    <t>cama de palha</t>
+  </si>
+  <si>
+    <t>quadrado mágico</t>
+  </si>
+  <si>
+    <t>oficina</t>
+  </si>
+  <si>
+    <t>laboratório</t>
+  </si>
+  <si>
+    <t>circo</t>
+  </si>
+  <si>
+    <t>ruína</t>
+  </si>
+  <si>
+    <t>cinzas</t>
+  </si>
+  <si>
+    <t>praça</t>
+  </si>
+  <si>
+    <t>matadouro</t>
+  </si>
+  <si>
+    <t>forca</t>
+  </si>
+  <si>
+    <t>esgoto</t>
+  </si>
+  <si>
+    <t>manicômio</t>
+  </si>
+  <si>
+    <t>vila</t>
+  </si>
+  <si>
+    <t>abrigo</t>
+  </si>
+  <si>
+    <t>necrotério</t>
+  </si>
+  <si>
+    <t>esconderijo</t>
+  </si>
+  <si>
+    <t>abismo</t>
+  </si>
+  <si>
+    <t>lugar assustador</t>
+  </si>
+  <si>
+    <t>lugar perigoso</t>
+  </si>
+  <si>
+    <t>sítio histórico</t>
+  </si>
+  <si>
+    <t>mosteiro</t>
+  </si>
+  <si>
+    <t>capela</t>
+  </si>
+  <si>
+    <t>estalagem,taverna</t>
+  </si>
+  <si>
+    <t>reino,império,nação</t>
+  </si>
+  <si>
+    <t>seguidores,reunião</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>lar</t>
+  </si>
+  <si>
+    <t>círculo</t>
+  </si>
+  <si>
+    <t>clã,família</t>
+  </si>
+  <si>
+    <t>terra natal</t>
+  </si>
+  <si>
+    <t>solo,ninho</t>
+  </si>
+  <si>
+    <t>dimensão,domínio</t>
+  </si>
+  <si>
+    <t>exército,trupe,companhia</t>
+  </si>
+  <si>
+    <t>propriedade,distrito</t>
+  </si>
+  <si>
+    <t>ducado,linhagem,república</t>
+  </si>
+  <si>
+    <t>castelo,torre,fortaleza</t>
+  </si>
+  <si>
+    <t>céu,guarida,bordel,habitat</t>
+  </si>
+  <si>
+    <t>terra das maravilhas,Éden,Sião</t>
+  </si>
+  <si>
+    <t>porão,esconderijo</t>
+  </si>
+  <si>
+    <t>ateliê,bar</t>
+  </si>
+  <si>
+    <t>lagoa,lago,pântano</t>
+  </si>
+  <si>
+    <t>país,reino</t>
+  </si>
+  <si>
+    <t>território</t>
+  </si>
+  <si>
+    <t>fazenda,campo</t>
+  </si>
+  <si>
+    <t>federação,união</t>
+  </si>
+  <si>
+    <t>clube,salão,círculo</t>
+  </si>
+  <si>
+    <t>colônia,comuna,oásis</t>
+  </si>
+  <si>
+    <t>academia</t>
+  </si>
+  <si>
+    <t>meca,santuário</t>
+  </si>
+  <si>
+    <t>gangue,assaltantes,matilha</t>
+  </si>
+  <si>
+    <t>festa,bando</t>
+  </si>
+  <si>
+    <t>buraco,chalé,casa</t>
+  </si>
+  <si>
+    <t>santuário</t>
+  </si>
+  <si>
+    <t>abrigo,habitação,esconderijo</t>
+  </si>
+  <si>
+    <t>mundo,terra,sociedade</t>
+  </si>
+  <si>
+    <t>retiro,toca,vila</t>
+  </si>
+  <si>
+    <t>morada,guarida,asas,pena,lar,vela</t>
+  </si>
+  <si>
+    <t>esperança,luz</t>
+  </si>
+  <si>
+    <t>amigo,tropa,enxame</t>
+  </si>
+  <si>
+    <t>horda,rebanho,bando</t>
+  </si>
+  <si>
+    <t>multidão,remanescente,sobreviventes</t>
+  </si>
+  <si>
+    <t>sala,classe</t>
+  </si>
+  <si>
+    <t>linhagem,descendência,descendente</t>
+  </si>
+  <si>
+    <t>juramento,voto</t>
+  </si>
+  <si>
+    <t>irmandade,irmãos,irmãs</t>
+  </si>
+  <si>
+    <t>povo,crianças</t>
+  </si>
+  <si>
+    <t>culto,ordem,ensinamento</t>
+  </si>
+  <si>
+    <t>guilda</t>
+  </si>
+  <si>
+    <t>missionários,seita,cultistas</t>
+  </si>
+  <si>
+    <t>facção,grupo,esquadrão</t>
+  </si>
+  <si>
+    <t>cavalaria,força armada</t>
+  </si>
+  <si>
+    <t>cavaleiros</t>
+  </si>
+  <si>
+    <t>defensores,cantores</t>
+  </si>
+  <si>
+    <t>templo,igreja,mosteiro</t>
+  </si>
+  <si>
+    <t>refúgio,estância,esconderijo</t>
+  </si>
+  <si>
+    <t>santuário,acampamento,asilo</t>
+  </si>
+  <si>
+    <t>castelo,mansão,sobrado</t>
+  </si>
+  <si>
+    <t>terroristas,rebelde,resistência</t>
+  </si>
+  <si>
+    <t>região,secreto,arcádia,paraíso</t>
+  </si>
+  <si>
+    <t>paraíso,céu,terra dos sonhos,hotel,terra das fadas</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>desgraça,tormento</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>pastagem,curral</t>
+  </si>
+  <si>
+    <t>orgulho,maldição,pecado,valor</t>
+  </si>
+  <si>
+    <t>pai,mãe,filho,filha,crianças,criança</t>
+  </si>
+  <si>
+    <t>lenda,contos</t>
+  </si>
+  <si>
+    <t>laço,promessa,contrato,lágrimas</t>
+  </si>
+  <si>
+    <t>vale,floresta,colina</t>
+  </si>
+  <si>
+    <t>vento,córrego,tempestade,tormenta</t>
+  </si>
+  <si>
+    <t>matilha,enxame,multidão,bando,horda,mob,ninho</t>
+  </si>
+  <si>
+    <t>Mestre</t>
+  </si>
+  <si>
+    <t>Irmão</t>
+  </si>
+  <si>
+    <t>Irmã</t>
+  </si>
+  <si>
+    <t>Velho caranguejo</t>
+  </si>
+  <si>
+    <t>Princesa</t>
+  </si>
+  <si>
+    <t>Príncipe</t>
+  </si>
+  <si>
+    <t>Dono</t>
+  </si>
+  <si>
+    <t>Senhor</t>
+  </si>
+  <si>
+    <t>Senhorita</t>
+  </si>
+  <si>
+    <t>Rei</t>
+  </si>
+  <si>
+    <t>Rainha</t>
+  </si>
+  <si>
+    <t>Vossa Majestade</t>
+  </si>
+  <si>
+    <t>Porco imundo</t>
+  </si>
+  <si>
+    <t>Mano</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Produtor</t>
+  </si>
+  <si>
+    <t>Chefe</t>
+  </si>
+  <si>
+    <t>Diretor</t>
+  </si>
+  <si>
+    <t>Capitão</t>
+  </si>
+  <si>
+    <t>Líder</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Cadela</t>
+  </si>
+  <si>
+    <t>Verme</t>
+  </si>
+  <si>
+    <t>Perdedor</t>
+  </si>
+  <si>
+    <t>Galinha</t>
+  </si>
+  <si>
+    <t>Lixo</t>
+  </si>
+  <si>
+    <t>Pervertido</t>
+  </si>
+  <si>
+    <t>Imperador</t>
+  </si>
+  <si>
+    <t>Conde</t>
+  </si>
+  <si>
+    <t>Duque</t>
+  </si>
+  <si>
+    <t>Presidente</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Dama</t>
+  </si>
+  <si>
+    <t>O bravo</t>
+  </si>
+  <si>
+    <t>Sênior</t>
+  </si>
+  <si>
+    <t>Nobre</t>
+  </si>
+  <si>
+    <t>Governante</t>
+  </si>
+  <si>
+    <t>Comandante</t>
+  </si>
+  <si>
+    <t>Almirante</t>
+  </si>
+  <si>
+    <t>Almirante de merda</t>
+  </si>
+  <si>
+    <t>Vossa Alteza</t>
+  </si>
+  <si>
+    <t>Papai</t>
+  </si>
+  <si>
+    <t>Mamãe</t>
+  </si>
+  <si>
+    <t>Vovô</t>
+  </si>
+  <si>
+    <t>Vovó</t>
+  </si>
+  <si>
+    <t>Velho</t>
+  </si>
+  <si>
+    <t>Bruxa velha</t>
+  </si>
+  <si>
+    <t>Meu precioso</t>
+  </si>
+  <si>
+    <t>Aniquilador</t>
+  </si>
+  <si>
+    <t>Herói da luz</t>
+  </si>
+  <si>
+    <t>Escolhido</t>
+  </si>
+  <si>
+    <t>Viajante dos céus</t>
+  </si>
+  <si>
+    <t>O viajante dos céus</t>
+  </si>
+  <si>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Esposa</t>
+  </si>
+  <si>
+    <t>Marido</t>
+  </si>
+  <si>
+    <t>Neve</t>
+  </si>
+  <si>
+    <t>Único sobrevivente</t>
+  </si>
+  <si>
+    <t>Viajante solitário</t>
+  </si>
+  <si>
+    <t>Mensageiro</t>
+  </si>
+  <si>
+    <t>Portador</t>
+  </si>
+  <si>
+    <t>Profeta</t>
+  </si>
+  <si>
+    <t>Falso profeta</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Satanás</t>
+  </si>
+  <si>
+    <t>Bruxa</t>
+  </si>
+  <si>
+    <t>Gatinho</t>
+  </si>
+  <si>
+    <t>Filhote de gato</t>
+  </si>
+  <si>
+    <t>Filhote de cachorro</t>
+  </si>
+  <si>
+    <t>Cachorro</t>
+  </si>
+  <si>
+    <t>Escória</t>
+  </si>
+  <si>
+    <t>Degenerado</t>
+  </si>
+  <si>
+    <t>Fera</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>rancho</t>
+  </si>
+  <si>
+    <t>pastagem</t>
+  </si>
+  <si>
+    <t>fazenda,casa de criação</t>
+  </si>
+  <si>
+    <t>laticínio</t>
   </si>
 </sst>
 </file>
@@ -4732,8 +6025,8 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C1048576"/>
+      <pane ySplit="2" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C423" sqref="C423:C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4766,7 +6059,7 @@
         <v>1435</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1443</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4783,7 +6076,7 @@
         <v>1435</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>1444</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4800,7 +6093,7 @@
         <v>1435</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>1445</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -4817,7 +6110,7 @@
         <v>1435</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>1446</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -4834,7 +6127,7 @@
         <v>1435</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>1447</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -4851,7 +6144,7 @@
         <v>1435</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>1448</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -4868,7 +6161,7 @@
         <v>1435</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>1449</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -4885,7 +6178,7 @@
         <v>1435</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>1450</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -4902,7 +6195,7 @@
         <v>1435</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>1451</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -4919,7 +6212,7 @@
         <v>1435</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>1452</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -4936,7 +6229,7 @@
         <v>1435</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>1453</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -4953,7 +6246,7 @@
         <v>1435</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>1454</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -4970,7 +6263,7 @@
         <v>1435</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>1455</v>
       </c>
       <c r="D15" t="s">
         <v>42</v>
@@ -4987,7 +6280,7 @@
         <v>1435</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>1456</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -5004,7 +6297,7 @@
         <v>1435</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>1457</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -5021,7 +6314,7 @@
         <v>1435</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>1458</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -5038,7 +6331,7 @@
         <v>1435</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>1459</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
@@ -5055,7 +6348,7 @@
         <v>1435</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>1460</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -5072,7 +6365,7 @@
         <v>1435</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>1461</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
@@ -5089,7 +6382,7 @@
         <v>1435</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>1462</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -5106,7 +6399,7 @@
         <v>1435</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>1463</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -5123,7 +6416,7 @@
         <v>1435</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>1464</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
@@ -5140,7 +6433,7 @@
         <v>1435</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>1465</v>
       </c>
       <c r="D25" t="s">
         <v>72</v>
@@ -5157,7 +6450,7 @@
         <v>1435</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>1466</v>
       </c>
       <c r="D26" t="s">
         <v>75</v>
@@ -5174,7 +6467,7 @@
         <v>1435</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>1467</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -5191,7 +6484,7 @@
         <v>1435</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>1468</v>
       </c>
       <c r="D28" t="s">
         <v>81</v>
@@ -5208,7 +6501,7 @@
         <v>1435</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>1469</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -5225,7 +6518,7 @@
         <v>1436</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>1470</v>
       </c>
       <c r="D30" t="s">
         <v>87</v>
@@ -5242,7 +6535,7 @@
         <v>1435</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>1471</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -5259,7 +6552,7 @@
         <v>1435</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>1472</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -5276,7 +6569,7 @@
         <v>1435</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>1473</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -5293,7 +6586,7 @@
         <v>1435</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>1474</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -5310,7 +6603,7 @@
         <v>1435</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>1475</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -5327,7 +6620,7 @@
         <v>1435</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>1476</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -5344,7 +6637,7 @@
         <v>1435</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>1477</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -5361,7 +6654,7 @@
         <v>1436</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>1478</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
@@ -5378,7 +6671,7 @@
         <v>1435</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>1479</v>
       </c>
       <c r="D39" t="s">
         <v>114</v>
@@ -5395,7 +6688,7 @@
         <v>1435</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>1480</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
@@ -5412,7 +6705,7 @@
         <v>1435</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>1481</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
@@ -5429,7 +6722,7 @@
         <v>1435</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>1482</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -5446,7 +6739,7 @@
         <v>1436</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>1483</v>
       </c>
       <c r="D43" t="s">
         <v>126</v>
@@ -5463,7 +6756,7 @@
         <v>1435</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>1484</v>
       </c>
       <c r="D44" t="s">
         <v>129</v>
@@ -5480,7 +6773,7 @@
         <v>1435</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>1485</v>
       </c>
       <c r="D45" t="s">
         <v>132</v>
@@ -5497,7 +6790,7 @@
         <v>1435</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>1486</v>
       </c>
       <c r="D46" t="s">
         <v>135</v>
@@ -5514,7 +6807,7 @@
         <v>1435</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>1487</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -5531,7 +6824,7 @@
         <v>1435</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>1488</v>
       </c>
       <c r="D48" t="s">
         <v>141</v>
@@ -5548,7 +6841,7 @@
         <v>1435</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>1489</v>
       </c>
       <c r="D49" t="s">
         <v>144</v>
@@ -5565,7 +6858,7 @@
         <v>1435</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>1490</v>
       </c>
       <c r="D50" t="s">
         <v>147</v>
@@ -5582,7 +6875,7 @@
         <v>1435</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>1491</v>
       </c>
       <c r="D51" t="s">
         <v>150</v>
@@ -5599,7 +6892,7 @@
         <v>1435</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>1492</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -5616,7 +6909,7 @@
         <v>1435</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>1493</v>
       </c>
       <c r="D53" t="s">
         <v>156</v>
@@ -5650,7 +6943,7 @@
         <v>1435</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>1494</v>
       </c>
       <c r="D55" t="s">
         <v>162</v>
@@ -5667,7 +6960,7 @@
         <v>1435</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>1495</v>
       </c>
       <c r="D56" t="s">
         <v>165</v>
@@ -5684,7 +6977,7 @@
         <v>1435</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>1496</v>
       </c>
       <c r="D57" t="s">
         <v>168</v>
@@ -5701,7 +6994,7 @@
         <v>1435</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>1497</v>
       </c>
       <c r="D58" t="s">
         <v>171</v>
@@ -5718,7 +7011,7 @@
         <v>1435</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>1498</v>
       </c>
       <c r="D59" t="s">
         <v>174</v>
@@ -5735,7 +7028,7 @@
         <v>1435</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>1499</v>
       </c>
       <c r="D60" t="s">
         <v>177</v>
@@ -5752,7 +7045,7 @@
         <v>1435</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="D61" t="s">
         <v>180</v>
@@ -5769,7 +7062,7 @@
         <v>1435</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>1501</v>
       </c>
       <c r="D62" t="s">
         <v>183</v>
@@ -5786,7 +7079,7 @@
         <v>1435</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>1502</v>
       </c>
       <c r="D63" t="s">
         <v>186</v>
@@ -5803,7 +7096,7 @@
         <v>1435</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>1503</v>
       </c>
       <c r="D64" t="s">
         <v>189</v>
@@ -5820,7 +7113,7 @@
         <v>1435</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
+        <v>1504</v>
       </c>
       <c r="D65" t="s">
         <v>192</v>
@@ -5837,7 +7130,7 @@
         <v>1435</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
+        <v>1505</v>
       </c>
       <c r="D66" t="s">
         <v>195</v>
@@ -5854,7 +7147,7 @@
         <v>1435</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>1506</v>
       </c>
       <c r="D67" t="s">
         <v>198</v>
@@ -5871,7 +7164,7 @@
         <v>1435</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>1507</v>
       </c>
       <c r="D68" t="s">
         <v>201</v>
@@ -5888,7 +7181,7 @@
         <v>1435</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>1508</v>
       </c>
       <c r="D69" t="s">
         <v>204</v>
@@ -5905,7 +7198,7 @@
         <v>1435</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>1509</v>
       </c>
       <c r="D70" t="s">
         <v>207</v>
@@ -5922,7 +7215,7 @@
         <v>1435</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>1510</v>
       </c>
       <c r="D71" t="s">
         <v>210</v>
@@ -5939,7 +7232,7 @@
         <v>1435</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>1511</v>
       </c>
       <c r="D72" t="s">
         <v>213</v>
@@ -5956,7 +7249,7 @@
         <v>1435</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>1512</v>
       </c>
       <c r="D73" t="s">
         <v>216</v>
@@ -5973,7 +7266,7 @@
         <v>1436</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>1513</v>
       </c>
       <c r="D74" t="s">
         <v>219</v>
@@ -5990,7 +7283,7 @@
         <v>1435</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>1514</v>
       </c>
       <c r="D75" t="s">
         <v>222</v>
@@ -6007,7 +7300,7 @@
         <v>1435</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>1515</v>
       </c>
       <c r="D76" t="s">
         <v>225</v>
@@ -6024,7 +7317,7 @@
         <v>1435</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>1516</v>
       </c>
       <c r="D77" t="s">
         <v>228</v>
@@ -6041,7 +7334,7 @@
         <v>1435</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>1517</v>
       </c>
       <c r="D78" t="s">
         <v>231</v>
@@ -6058,7 +7351,7 @@
         <v>1437</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>1518</v>
       </c>
       <c r="D79" t="s">
         <v>234</v>
@@ -6075,7 +7368,7 @@
         <v>1435</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>1519</v>
       </c>
       <c r="D80" t="s">
         <v>237</v>
@@ -6092,7 +7385,7 @@
         <v>1435</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
+        <v>1520</v>
       </c>
       <c r="D81" t="s">
         <v>240</v>
@@ -6109,7 +7402,7 @@
         <v>1435</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>1521</v>
       </c>
       <c r="D82" t="s">
         <v>243</v>
@@ -6126,7 +7419,7 @@
         <v>1435</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>1482</v>
       </c>
       <c r="D83" t="s">
         <v>246</v>
@@ -6143,7 +7436,7 @@
         <v>1435</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>1522</v>
       </c>
       <c r="D84" t="s">
         <v>249</v>
@@ -6160,7 +7453,7 @@
         <v>1435</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>1523</v>
       </c>
       <c r="D85" t="s">
         <v>252</v>
@@ -6177,7 +7470,7 @@
         <v>1435</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>1524</v>
       </c>
       <c r="D86" t="s">
         <v>255</v>
@@ -6194,7 +7487,7 @@
         <v>1435</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>1525</v>
       </c>
       <c r="D87" t="s">
         <v>258</v>
@@ -6211,7 +7504,7 @@
         <v>1435</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>1526</v>
       </c>
       <c r="D88" t="s">
         <v>261</v>
@@ -6228,7 +7521,7 @@
         <v>1435</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>1471</v>
       </c>
       <c r="D89" t="s">
         <v>264</v>
@@ -6245,7 +7538,7 @@
         <v>1435</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>1527</v>
       </c>
       <c r="D90" t="s">
         <v>267</v>
@@ -6262,7 +7555,7 @@
         <v>1435</v>
       </c>
       <c r="C91" t="s">
-        <v>270</v>
+        <v>1528</v>
       </c>
       <c r="D91" t="s">
         <v>270</v>
@@ -6279,7 +7572,7 @@
         <v>1435</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>1529</v>
       </c>
       <c r="D92" t="s">
         <v>273</v>
@@ -6296,7 +7589,7 @@
         <v>1435</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>1530</v>
       </c>
       <c r="D93" t="s">
         <v>276</v>
@@ -6313,7 +7606,7 @@
         <v>1435</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>1531</v>
       </c>
       <c r="D94" t="s">
         <v>279</v>
@@ -6330,7 +7623,7 @@
         <v>1435</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>1532</v>
       </c>
       <c r="D95" t="s">
         <v>282</v>
@@ -6347,7 +7640,7 @@
         <v>1435</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>1533</v>
       </c>
       <c r="D96" t="s">
         <v>285</v>
@@ -6364,7 +7657,7 @@
         <v>1435</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>1534</v>
       </c>
       <c r="D97" t="s">
         <v>288</v>
@@ -6381,7 +7674,7 @@
         <v>1435</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>1535</v>
       </c>
       <c r="D98" t="s">
         <v>291</v>
@@ -6398,7 +7691,7 @@
         <v>1435</v>
       </c>
       <c r="C99" t="s">
-        <v>294</v>
+        <v>1536</v>
       </c>
       <c r="D99" t="s">
         <v>294</v>
@@ -6415,7 +7708,7 @@
         <v>1437</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>1537</v>
       </c>
       <c r="D100" t="s">
         <v>297</v>
@@ -6432,7 +7725,7 @@
         <v>1435</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>1538</v>
       </c>
       <c r="D101" t="s">
         <v>300</v>
@@ -6449,7 +7742,7 @@
         <v>1435</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>1539</v>
       </c>
       <c r="D102" t="s">
         <v>303</v>
@@ -6466,7 +7759,7 @@
         <v>1435</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>1540</v>
       </c>
       <c r="D103" t="s">
         <v>306</v>
@@ -6483,7 +7776,7 @@
         <v>1435</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>1541</v>
       </c>
       <c r="D104" t="s">
         <v>309</v>
@@ -6500,7 +7793,7 @@
         <v>1435</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>1542</v>
       </c>
       <c r="D105" t="s">
         <v>312</v>
@@ -6517,7 +7810,7 @@
         <v>1435</v>
       </c>
       <c r="C106" t="s">
-        <v>315</v>
+        <v>1543</v>
       </c>
       <c r="D106" t="s">
         <v>315</v>
@@ -6534,7 +7827,7 @@
         <v>1435</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>1544</v>
       </c>
       <c r="D107" t="s">
         <v>318</v>
@@ -6551,7 +7844,7 @@
         <v>1435</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>1545</v>
       </c>
       <c r="D108" t="s">
         <v>320</v>
@@ -6568,7 +7861,7 @@
         <v>1435</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>1546</v>
       </c>
       <c r="D109" t="s">
         <v>323</v>
@@ -6585,7 +7878,7 @@
         <v>1436</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>1547</v>
       </c>
       <c r="D110" t="s">
         <v>326</v>
@@ -6602,7 +7895,7 @@
         <v>1435</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>1548</v>
       </c>
       <c r="D111" t="s">
         <v>329</v>
@@ -6619,7 +7912,7 @@
         <v>1435</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>1549</v>
       </c>
       <c r="D112" t="s">
         <v>332</v>
@@ -6636,7 +7929,7 @@
         <v>1436</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>1550</v>
       </c>
       <c r="D113" t="s">
         <v>335</v>
@@ -6653,7 +7946,7 @@
         <v>1436</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>1551</v>
       </c>
       <c r="D114" t="s">
         <v>338</v>
@@ -6670,7 +7963,7 @@
         <v>1436</v>
       </c>
       <c r="C115" t="s">
-        <v>341</v>
+        <v>1552</v>
       </c>
       <c r="D115" t="s">
         <v>341</v>
@@ -6687,7 +7980,7 @@
         <v>1436</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>1553</v>
       </c>
       <c r="D116" t="s">
         <v>344</v>
@@ -6704,7 +7997,7 @@
         <v>1436</v>
       </c>
       <c r="C117" t="s">
-        <v>347</v>
+        <v>1554</v>
       </c>
       <c r="D117" t="s">
         <v>347</v>
@@ -6721,7 +8014,7 @@
         <v>1436</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
+        <v>1555</v>
       </c>
       <c r="D118" t="s">
         <v>350</v>
@@ -6738,7 +8031,7 @@
         <v>1436</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>1556</v>
       </c>
       <c r="D119" t="s">
         <v>353</v>
@@ -6755,7 +8048,7 @@
         <v>1436</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
+        <v>1557</v>
       </c>
       <c r="D120" t="s">
         <v>356</v>
@@ -6772,7 +8065,7 @@
         <v>1436</v>
       </c>
       <c r="C121" t="s">
-        <v>359</v>
+        <v>1558</v>
       </c>
       <c r="D121" t="s">
         <v>359</v>
@@ -6789,7 +8082,7 @@
         <v>1436</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>1559</v>
       </c>
       <c r="D122" t="s">
         <v>362</v>
@@ -6806,7 +8099,7 @@
         <v>1436</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>1560</v>
       </c>
       <c r="D123" t="s">
         <v>365</v>
@@ -6823,7 +8116,7 @@
         <v>1438</v>
       </c>
       <c r="C124" t="s">
-        <v>368</v>
+        <v>1561</v>
       </c>
       <c r="D124" t="s">
         <v>368</v>
@@ -6840,7 +8133,7 @@
         <v>1438</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>1562</v>
       </c>
       <c r="D125" t="s">
         <v>371</v>
@@ -6857,7 +8150,7 @@
         <v>1438</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
+        <v>1563</v>
       </c>
       <c r="D126" t="s">
         <v>374</v>
@@ -6874,7 +8167,7 @@
         <v>1437</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>1564</v>
       </c>
       <c r="D127" t="s">
         <v>377</v>
@@ -6891,7 +8184,7 @@
         <v>1437</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
+        <v>1565</v>
       </c>
       <c r="D128" t="s">
         <v>380</v>
@@ -6908,7 +8201,7 @@
         <v>1437</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>1566</v>
       </c>
       <c r="D129" t="s">
         <v>383</v>
@@ -6925,7 +8218,7 @@
         <v>1437</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
+        <v>1567</v>
       </c>
       <c r="D130" t="s">
         <v>386</v>
@@ -6942,7 +8235,7 @@
         <v>1437</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>1568</v>
       </c>
       <c r="D131" t="s">
         <v>389</v>
@@ -6959,7 +8252,7 @@
         <v>1437</v>
       </c>
       <c r="C132" t="s">
-        <v>392</v>
+        <v>1569</v>
       </c>
       <c r="D132" t="s">
         <v>392</v>
@@ -6976,7 +8269,7 @@
         <v>1437</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>1570</v>
       </c>
       <c r="D133" t="s">
         <v>395</v>
@@ -6993,7 +8286,7 @@
         <v>1437</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>1571</v>
       </c>
       <c r="D134" t="s">
         <v>398</v>
@@ -7010,7 +8303,7 @@
         <v>1437</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
+        <v>1572</v>
       </c>
       <c r="D135" t="s">
         <v>401</v>
@@ -7027,7 +8320,7 @@
         <v>1437</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
+        <v>1573</v>
       </c>
       <c r="D136" t="s">
         <v>404</v>
@@ -7044,7 +8337,7 @@
         <v>1437</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
+        <v>1574</v>
       </c>
       <c r="D137" t="s">
         <v>407</v>
@@ -7061,7 +8354,7 @@
         <v>1437</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
+        <v>1575</v>
       </c>
       <c r="D138" t="s">
         <v>410</v>
@@ -7078,7 +8371,7 @@
         <v>1437</v>
       </c>
       <c r="C139" t="s">
-        <v>413</v>
+        <v>1576</v>
       </c>
       <c r="D139" t="s">
         <v>413</v>
@@ -7095,7 +8388,7 @@
         <v>1439</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
+        <v>1577</v>
       </c>
       <c r="D140" t="s">
         <v>416</v>
@@ -7112,7 +8405,7 @@
         <v>1439</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>1578</v>
       </c>
       <c r="D141" t="s">
         <v>419</v>
@@ -7129,7 +8422,7 @@
         <v>1435</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>1474</v>
       </c>
       <c r="D142" t="s">
         <v>99</v>
@@ -7146,7 +8439,7 @@
         <v>1435</v>
       </c>
       <c r="C143" t="s">
-        <v>424</v>
+        <v>1579</v>
       </c>
       <c r="D143" t="s">
         <v>424</v>
@@ -7163,7 +8456,7 @@
         <v>1435</v>
       </c>
       <c r="C144" t="s">
-        <v>427</v>
+        <v>1580</v>
       </c>
       <c r="D144" t="s">
         <v>427</v>
@@ -7180,7 +8473,7 @@
         <v>1435</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>1581</v>
       </c>
       <c r="D145" t="s">
         <v>430</v>
@@ -7197,7 +8490,7 @@
         <v>1435</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>1582</v>
       </c>
       <c r="D146" t="s">
         <v>433</v>
@@ -7214,7 +8507,7 @@
         <v>1435</v>
       </c>
       <c r="C147" t="s">
-        <v>436</v>
+        <v>1583</v>
       </c>
       <c r="D147" t="s">
         <v>436</v>
@@ -7231,7 +8524,7 @@
         <v>1435</v>
       </c>
       <c r="C148" t="s">
-        <v>439</v>
+        <v>1584</v>
       </c>
       <c r="D148" t="s">
         <v>439</v>
@@ -7248,7 +8541,7 @@
         <v>1435</v>
       </c>
       <c r="C149" t="s">
-        <v>442</v>
+        <v>1585</v>
       </c>
       <c r="D149" t="s">
         <v>442</v>
@@ -7265,7 +8558,7 @@
         <v>1435</v>
       </c>
       <c r="C150" t="s">
-        <v>445</v>
+        <v>1586</v>
       </c>
       <c r="D150" t="s">
         <v>445</v>
@@ -7282,7 +8575,7 @@
         <v>1435</v>
       </c>
       <c r="C151" t="s">
-        <v>448</v>
+        <v>1587</v>
       </c>
       <c r="D151" t="s">
         <v>448</v>
@@ -7299,7 +8592,7 @@
         <v>1435</v>
       </c>
       <c r="C152" t="s">
-        <v>451</v>
+        <v>1588</v>
       </c>
       <c r="D152" t="s">
         <v>451</v>
@@ -7316,7 +8609,7 @@
         <v>1435</v>
       </c>
       <c r="C153" t="s">
-        <v>454</v>
+        <v>1568</v>
       </c>
       <c r="D153" t="s">
         <v>454</v>
@@ -7350,7 +8643,7 @@
         <v>1435</v>
       </c>
       <c r="C155" t="s">
-        <v>460</v>
+        <v>1589</v>
       </c>
       <c r="D155" t="s">
         <v>460</v>
@@ -7367,7 +8660,7 @@
         <v>1435</v>
       </c>
       <c r="C156" t="s">
-        <v>463</v>
+        <v>1590</v>
       </c>
       <c r="D156" t="s">
         <v>463</v>
@@ -7384,7 +8677,7 @@
         <v>1435</v>
       </c>
       <c r="C157" t="s">
-        <v>466</v>
+        <v>1591</v>
       </c>
       <c r="D157" t="s">
         <v>466</v>
@@ -7401,7 +8694,7 @@
         <v>1435</v>
       </c>
       <c r="C158" t="s">
-        <v>469</v>
+        <v>1592</v>
       </c>
       <c r="D158" t="s">
         <v>469</v>
@@ -7418,7 +8711,7 @@
         <v>1435</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>1593</v>
       </c>
       <c r="D159" t="s">
         <v>472</v>
@@ -7435,7 +8728,7 @@
         <v>1435</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>1594</v>
       </c>
       <c r="D160" t="s">
         <v>475</v>
@@ -7452,7 +8745,7 @@
         <v>1435</v>
       </c>
       <c r="C161" t="s">
-        <v>478</v>
+        <v>1595</v>
       </c>
       <c r="D161" t="s">
         <v>478</v>
@@ -7469,7 +8762,7 @@
         <v>1435</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>1596</v>
       </c>
       <c r="D162" t="s">
         <v>481</v>
@@ -7486,7 +8779,7 @@
         <v>1435</v>
       </c>
       <c r="C163" t="s">
-        <v>484</v>
+        <v>1597</v>
       </c>
       <c r="D163" t="s">
         <v>484</v>
@@ -7503,7 +8796,7 @@
         <v>1435</v>
       </c>
       <c r="C164" t="s">
-        <v>487</v>
+        <v>1598</v>
       </c>
       <c r="D164" t="s">
         <v>487</v>
@@ -7520,7 +8813,7 @@
         <v>1435</v>
       </c>
       <c r="C165" t="s">
-        <v>490</v>
+        <v>1599</v>
       </c>
       <c r="D165" t="s">
         <v>490</v>
@@ -7537,7 +8830,7 @@
         <v>1435</v>
       </c>
       <c r="C166" t="s">
-        <v>493</v>
+        <v>1600</v>
       </c>
       <c r="D166" t="s">
         <v>493</v>
@@ -7554,7 +8847,7 @@
         <v>1435</v>
       </c>
       <c r="C167" t="s">
-        <v>496</v>
+        <v>1601</v>
       </c>
       <c r="D167" t="s">
         <v>496</v>
@@ -7571,7 +8864,7 @@
         <v>1435</v>
       </c>
       <c r="C168" t="s">
-        <v>499</v>
+        <v>1602</v>
       </c>
       <c r="D168" t="s">
         <v>499</v>
@@ -7588,7 +8881,7 @@
         <v>1435</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>1603</v>
       </c>
       <c r="D169" t="s">
         <v>502</v>
@@ -7605,7 +8898,7 @@
         <v>1435</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>1604</v>
       </c>
       <c r="D170" t="s">
         <v>505</v>
@@ -7622,7 +8915,7 @@
         <v>1435</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>1605</v>
       </c>
       <c r="D171" t="s">
         <v>508</v>
@@ -7639,7 +8932,7 @@
         <v>1435</v>
       </c>
       <c r="C172" t="s">
-        <v>511</v>
+        <v>1606</v>
       </c>
       <c r="D172" t="s">
         <v>511</v>
@@ -7656,7 +8949,7 @@
         <v>1435</v>
       </c>
       <c r="C173" t="s">
-        <v>514</v>
+        <v>1607</v>
       </c>
       <c r="D173" t="s">
         <v>514</v>
@@ -7673,7 +8966,7 @@
         <v>1435</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>1608</v>
       </c>
       <c r="D174" t="s">
         <v>517</v>
@@ -7690,7 +8983,7 @@
         <v>1435</v>
       </c>
       <c r="C175" t="s">
-        <v>520</v>
+        <v>1609</v>
       </c>
       <c r="D175" t="s">
         <v>520</v>
@@ -7707,7 +9000,7 @@
         <v>1435</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>1456</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
@@ -7724,7 +9017,7 @@
         <v>1435</v>
       </c>
       <c r="C177" t="s">
-        <v>525</v>
+        <v>1610</v>
       </c>
       <c r="D177" t="s">
         <v>525</v>
@@ -7741,7 +9034,7 @@
         <v>1435</v>
       </c>
       <c r="C178" t="s">
-        <v>528</v>
+        <v>1611</v>
       </c>
       <c r="D178" t="s">
         <v>528</v>
@@ -7758,7 +9051,7 @@
         <v>1435</v>
       </c>
       <c r="C179" t="s">
-        <v>531</v>
+        <v>1612</v>
       </c>
       <c r="D179" t="s">
         <v>531</v>
@@ -7775,7 +9068,7 @@
         <v>1435</v>
       </c>
       <c r="C180" t="s">
-        <v>534</v>
+        <v>1613</v>
       </c>
       <c r="D180" t="s">
         <v>534</v>
@@ -7792,7 +9085,7 @@
         <v>1435</v>
       </c>
       <c r="C181" t="s">
-        <v>537</v>
+        <v>1614</v>
       </c>
       <c r="D181" t="s">
         <v>537</v>
@@ -7809,7 +9102,7 @@
         <v>1435</v>
       </c>
       <c r="C182" t="s">
-        <v>540</v>
+        <v>1615</v>
       </c>
       <c r="D182" t="s">
         <v>540</v>
@@ -7826,7 +9119,7 @@
         <v>1435</v>
       </c>
       <c r="C183" t="s">
-        <v>543</v>
+        <v>1616</v>
       </c>
       <c r="D183" t="s">
         <v>543</v>
@@ -7843,7 +9136,7 @@
         <v>1435</v>
       </c>
       <c r="C184" t="s">
-        <v>546</v>
+        <v>1617</v>
       </c>
       <c r="D184" t="s">
         <v>546</v>
@@ -7860,7 +9153,7 @@
         <v>1435</v>
       </c>
       <c r="C185" t="s">
-        <v>549</v>
+        <v>1618</v>
       </c>
       <c r="D185" t="s">
         <v>549</v>
@@ -7877,7 +9170,7 @@
         <v>1435</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>1619</v>
       </c>
       <c r="D186" t="s">
         <v>552</v>
@@ -7894,7 +9187,7 @@
         <v>1435</v>
       </c>
       <c r="C187" t="s">
-        <v>555</v>
+        <v>1620</v>
       </c>
       <c r="D187" t="s">
         <v>555</v>
@@ -7911,7 +9204,7 @@
         <v>1435</v>
       </c>
       <c r="C188" t="s">
-        <v>558</v>
+        <v>1621</v>
       </c>
       <c r="D188" t="s">
         <v>558</v>
@@ -7928,7 +9221,7 @@
         <v>1435</v>
       </c>
       <c r="C189" t="s">
-        <v>561</v>
+        <v>1622</v>
       </c>
       <c r="D189" t="s">
         <v>561</v>
@@ -7945,7 +9238,7 @@
         <v>1435</v>
       </c>
       <c r="C190" t="s">
-        <v>564</v>
+        <v>1623</v>
       </c>
       <c r="D190" t="s">
         <v>564</v>
@@ -7962,7 +9255,7 @@
         <v>1435</v>
       </c>
       <c r="C191" t="s">
-        <v>567</v>
+        <v>1624</v>
       </c>
       <c r="D191" t="s">
         <v>567</v>
@@ -7979,7 +9272,7 @@
         <v>1435</v>
       </c>
       <c r="C192" t="s">
-        <v>570</v>
+        <v>1625</v>
       </c>
       <c r="D192" t="s">
         <v>570</v>
@@ -7996,7 +9289,7 @@
         <v>1435</v>
       </c>
       <c r="C193" t="s">
-        <v>573</v>
+        <v>1626</v>
       </c>
       <c r="D193" t="s">
         <v>573</v>
@@ -8013,7 +9306,7 @@
         <v>1435</v>
       </c>
       <c r="C194" t="s">
-        <v>576</v>
+        <v>1627</v>
       </c>
       <c r="D194" t="s">
         <v>576</v>
@@ -8030,7 +9323,7 @@
         <v>1435</v>
       </c>
       <c r="C195" t="s">
-        <v>579</v>
+        <v>1618</v>
       </c>
       <c r="D195" t="s">
         <v>579</v>
@@ -8047,7 +9340,7 @@
         <v>1435</v>
       </c>
       <c r="C196" t="s">
-        <v>582</v>
+        <v>1628</v>
       </c>
       <c r="D196" t="s">
         <v>582</v>
@@ -8064,7 +9357,7 @@
         <v>1435</v>
       </c>
       <c r="C197" t="s">
-        <v>585</v>
+        <v>1629</v>
       </c>
       <c r="D197" t="s">
         <v>585</v>
@@ -8081,7 +9374,7 @@
         <v>1435</v>
       </c>
       <c r="C198" t="s">
-        <v>588</v>
+        <v>1630</v>
       </c>
       <c r="D198" t="s">
         <v>588</v>
@@ -8098,7 +9391,7 @@
         <v>1435</v>
       </c>
       <c r="C199" t="s">
-        <v>591</v>
+        <v>1631</v>
       </c>
       <c r="D199" t="s">
         <v>591</v>
@@ -8115,7 +9408,7 @@
         <v>1435</v>
       </c>
       <c r="C200" t="s">
-        <v>594</v>
+        <v>1632</v>
       </c>
       <c r="D200" t="s">
         <v>594</v>
@@ -8132,7 +9425,7 @@
         <v>1435</v>
       </c>
       <c r="C201" t="s">
-        <v>597</v>
+        <v>1633</v>
       </c>
       <c r="D201" t="s">
         <v>597</v>
@@ -8149,7 +9442,7 @@
         <v>1435</v>
       </c>
       <c r="C202" t="s">
-        <v>600</v>
+        <v>1634</v>
       </c>
       <c r="D202" t="s">
         <v>600</v>
@@ -8166,7 +9459,7 @@
         <v>1435</v>
       </c>
       <c r="C203" t="s">
-        <v>603</v>
+        <v>1635</v>
       </c>
       <c r="D203" t="s">
         <v>603</v>
@@ -8183,7 +9476,7 @@
         <v>1435</v>
       </c>
       <c r="C204" t="s">
-        <v>606</v>
+        <v>1636</v>
       </c>
       <c r="D204" t="s">
         <v>606</v>
@@ -8200,7 +9493,7 @@
         <v>1435</v>
       </c>
       <c r="C205" t="s">
-        <v>609</v>
+        <v>1637</v>
       </c>
       <c r="D205" t="s">
         <v>609</v>
@@ -8217,7 +9510,7 @@
         <v>1435</v>
       </c>
       <c r="C206" t="s">
-        <v>612</v>
+        <v>1638</v>
       </c>
       <c r="D206" t="s">
         <v>612</v>
@@ -8234,7 +9527,7 @@
         <v>1435</v>
       </c>
       <c r="C207" t="s">
-        <v>615</v>
+        <v>1639</v>
       </c>
       <c r="D207" t="s">
         <v>615</v>
@@ -8268,7 +9561,7 @@
         <v>1435</v>
       </c>
       <c r="C209" t="s">
-        <v>621</v>
+        <v>1640</v>
       </c>
       <c r="D209" t="s">
         <v>621</v>
@@ -8285,7 +9578,7 @@
         <v>1435</v>
       </c>
       <c r="C210" t="s">
-        <v>624</v>
+        <v>1641</v>
       </c>
       <c r="D210" t="s">
         <v>624</v>
@@ -8302,7 +9595,7 @@
         <v>1435</v>
       </c>
       <c r="C211" t="s">
-        <v>627</v>
+        <v>1514</v>
       </c>
       <c r="D211" t="s">
         <v>627</v>
@@ -8319,7 +9612,7 @@
         <v>1435</v>
       </c>
       <c r="C212" t="s">
-        <v>630</v>
+        <v>1642</v>
       </c>
       <c r="D212" t="s">
         <v>630</v>
@@ -8336,7 +9629,7 @@
         <v>1435</v>
       </c>
       <c r="C213" t="s">
-        <v>633</v>
+        <v>1643</v>
       </c>
       <c r="D213" t="s">
         <v>633</v>
@@ -8353,7 +9646,7 @@
         <v>1435</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>1454</v>
       </c>
       <c r="D214" t="s">
         <v>39</v>
@@ -8370,7 +9663,7 @@
         <v>1435</v>
       </c>
       <c r="C215" t="s">
-        <v>638</v>
+        <v>1644</v>
       </c>
       <c r="D215" t="s">
         <v>638</v>
@@ -8387,7 +9680,7 @@
         <v>1435</v>
       </c>
       <c r="C216" t="s">
-        <v>641</v>
+        <v>1645</v>
       </c>
       <c r="D216" t="s">
         <v>641</v>
@@ -8404,7 +9697,7 @@
         <v>1435</v>
       </c>
       <c r="C217" t="s">
-        <v>644</v>
+        <v>1646</v>
       </c>
       <c r="D217" t="s">
         <v>644</v>
@@ -8421,7 +9714,7 @@
         <v>1435</v>
       </c>
       <c r="C218" t="s">
-        <v>647</v>
+        <v>1647</v>
       </c>
       <c r="D218" t="s">
         <v>647</v>
@@ -8438,7 +9731,7 @@
         <v>1435</v>
       </c>
       <c r="C219" t="s">
-        <v>650</v>
+        <v>1648</v>
       </c>
       <c r="D219" t="s">
         <v>650</v>
@@ -8455,7 +9748,7 @@
         <v>1436</v>
       </c>
       <c r="C220" t="s">
-        <v>653</v>
+        <v>1649</v>
       </c>
       <c r="D220" t="s">
         <v>653</v>
@@ -8472,7 +9765,7 @@
         <v>1436</v>
       </c>
       <c r="C221" t="s">
-        <v>656</v>
+        <v>1650</v>
       </c>
       <c r="D221" t="s">
         <v>656</v>
@@ -8489,7 +9782,7 @@
         <v>1440</v>
       </c>
       <c r="C222" t="s">
-        <v>659</v>
+        <v>1651</v>
       </c>
       <c r="D222" t="s">
         <v>659</v>
@@ -8506,7 +9799,7 @@
         <v>1440</v>
       </c>
       <c r="C223" t="s">
-        <v>662</v>
+        <v>1652</v>
       </c>
       <c r="D223" t="s">
         <v>662</v>
@@ -8523,7 +9816,7 @@
         <v>1436</v>
       </c>
       <c r="C224" t="s">
-        <v>665</v>
+        <v>1653</v>
       </c>
       <c r="D224" t="s">
         <v>665</v>
@@ -8540,7 +9833,7 @@
         <v>1437</v>
       </c>
       <c r="C225" t="s">
-        <v>668</v>
+        <v>1654</v>
       </c>
       <c r="D225" t="s">
         <v>668</v>
@@ -8557,7 +9850,7 @@
         <v>1437</v>
       </c>
       <c r="C226" t="s">
-        <v>671</v>
+        <v>1655</v>
       </c>
       <c r="D226" t="s">
         <v>671</v>
@@ -8574,7 +9867,7 @@
         <v>1437</v>
       </c>
       <c r="C227" t="s">
-        <v>674</v>
+        <v>1656</v>
       </c>
       <c r="D227" t="s">
         <v>674</v>
@@ -8591,7 +9884,7 @@
         <v>1437</v>
       </c>
       <c r="C228" t="s">
-        <v>677</v>
+        <v>1657</v>
       </c>
       <c r="D228" t="s">
         <v>677</v>
@@ -8608,7 +9901,7 @@
         <v>1440</v>
       </c>
       <c r="C229" t="s">
-        <v>680</v>
+        <v>1658</v>
       </c>
       <c r="D229" t="s">
         <v>680</v>
@@ -8625,7 +9918,7 @@
         <v>1440</v>
       </c>
       <c r="C230" t="s">
-        <v>683</v>
+        <v>1598</v>
       </c>
       <c r="D230" t="s">
         <v>683</v>
@@ -8659,7 +9952,7 @@
         <v>1435</v>
       </c>
       <c r="C232" t="s">
-        <v>689</v>
+        <v>1659</v>
       </c>
       <c r="D232" t="s">
         <v>689</v>
@@ -8693,7 +9986,7 @@
         <v>1435</v>
       </c>
       <c r="C234" t="s">
-        <v>695</v>
+        <v>1660</v>
       </c>
       <c r="D234" t="s">
         <v>695</v>
@@ -8727,7 +10020,7 @@
         <v>1435</v>
       </c>
       <c r="C236" t="s">
-        <v>701</v>
+        <v>1661</v>
       </c>
       <c r="D236" t="s">
         <v>701</v>
@@ -8744,7 +10037,7 @@
         <v>1435</v>
       </c>
       <c r="C237" t="s">
-        <v>704</v>
+        <v>1662</v>
       </c>
       <c r="D237" t="s">
         <v>704</v>
@@ -8761,7 +10054,7 @@
         <v>1435</v>
       </c>
       <c r="C238" t="s">
-        <v>707</v>
+        <v>1663</v>
       </c>
       <c r="D238" t="s">
         <v>707</v>
@@ -8778,7 +10071,7 @@
         <v>1435</v>
       </c>
       <c r="C239" t="s">
-        <v>710</v>
+        <v>1664</v>
       </c>
       <c r="D239" t="s">
         <v>710</v>
@@ -8795,7 +10088,7 @@
         <v>1435</v>
       </c>
       <c r="C240" t="s">
-        <v>713</v>
+        <v>1665</v>
       </c>
       <c r="D240" t="s">
         <v>713</v>
@@ -8812,7 +10105,7 @@
         <v>1435</v>
       </c>
       <c r="C241" t="s">
-        <v>716</v>
+        <v>1666</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -8829,7 +10122,7 @@
         <v>1435</v>
       </c>
       <c r="C242" t="s">
-        <v>719</v>
+        <v>1667</v>
       </c>
       <c r="D242" t="s">
         <v>719</v>
@@ -8846,7 +10139,7 @@
         <v>1435</v>
       </c>
       <c r="C243" t="s">
-        <v>722</v>
+        <v>1668</v>
       </c>
       <c r="D243" t="s">
         <v>722</v>
@@ -8863,7 +10156,7 @@
         <v>1435</v>
       </c>
       <c r="C244" t="s">
-        <v>725</v>
+        <v>1669</v>
       </c>
       <c r="D244" t="s">
         <v>725</v>
@@ -8880,7 +10173,7 @@
         <v>1435</v>
       </c>
       <c r="C245" t="s">
-        <v>728</v>
+        <v>1670</v>
       </c>
       <c r="D245" t="s">
         <v>728</v>
@@ -8897,7 +10190,7 @@
         <v>1435</v>
       </c>
       <c r="C246" t="s">
-        <v>731</v>
+        <v>1671</v>
       </c>
       <c r="D246" t="s">
         <v>731</v>
@@ -8914,7 +10207,7 @@
         <v>1435</v>
       </c>
       <c r="C247" t="s">
-        <v>734</v>
+        <v>1672</v>
       </c>
       <c r="D247" t="s">
         <v>734</v>
@@ -8931,7 +10224,7 @@
         <v>1435</v>
       </c>
       <c r="C248" t="s">
-        <v>737</v>
+        <v>1673</v>
       </c>
       <c r="D248" t="s">
         <v>737</v>
@@ -8948,7 +10241,7 @@
         <v>1435</v>
       </c>
       <c r="C249" t="s">
-        <v>740</v>
+        <v>1674</v>
       </c>
       <c r="D249" t="s">
         <v>740</v>
@@ -8965,7 +10258,7 @@
         <v>1435</v>
       </c>
       <c r="C250" t="s">
-        <v>743</v>
+        <v>1675</v>
       </c>
       <c r="D250" t="s">
         <v>743</v>
@@ -8982,7 +10275,7 @@
         <v>1435</v>
       </c>
       <c r="C251" t="s">
-        <v>746</v>
+        <v>1676</v>
       </c>
       <c r="D251" t="s">
         <v>746</v>
@@ -8999,7 +10292,7 @@
         <v>1435</v>
       </c>
       <c r="C252" t="s">
-        <v>749</v>
+        <v>1677</v>
       </c>
       <c r="D252" t="s">
         <v>749</v>
@@ -9016,7 +10309,7 @@
         <v>1435</v>
       </c>
       <c r="C253" t="s">
-        <v>752</v>
+        <v>1678</v>
       </c>
       <c r="D253" t="s">
         <v>752</v>
@@ -9033,7 +10326,7 @@
         <v>1435</v>
       </c>
       <c r="C254" t="s">
-        <v>755</v>
+        <v>1679</v>
       </c>
       <c r="D254" t="s">
         <v>755</v>
@@ -9050,7 +10343,7 @@
         <v>1435</v>
       </c>
       <c r="C255" t="s">
-        <v>758</v>
+        <v>1680</v>
       </c>
       <c r="D255" t="s">
         <v>758</v>
@@ -9067,7 +10360,7 @@
         <v>1435</v>
       </c>
       <c r="C256" t="s">
-        <v>761</v>
+        <v>1681</v>
       </c>
       <c r="D256" t="s">
         <v>761</v>
@@ -9084,7 +10377,7 @@
         <v>1435</v>
       </c>
       <c r="C257" t="s">
-        <v>764</v>
+        <v>1682</v>
       </c>
       <c r="D257" t="s">
         <v>764</v>
@@ -9101,7 +10394,7 @@
         <v>1435</v>
       </c>
       <c r="C258" t="s">
-        <v>767</v>
+        <v>1683</v>
       </c>
       <c r="D258" t="s">
         <v>767</v>
@@ -9118,7 +10411,7 @@
         <v>1435</v>
       </c>
       <c r="C259" t="s">
-        <v>770</v>
+        <v>1684</v>
       </c>
       <c r="D259" t="s">
         <v>770</v>
@@ -9135,7 +10428,7 @@
         <v>1435</v>
       </c>
       <c r="C260" t="s">
-        <v>773</v>
+        <v>1685</v>
       </c>
       <c r="D260" t="s">
         <v>773</v>
@@ -9169,7 +10462,7 @@
         <v>1435</v>
       </c>
       <c r="C262" t="s">
-        <v>779</v>
+        <v>1686</v>
       </c>
       <c r="D262" t="s">
         <v>779</v>
@@ -9186,7 +10479,7 @@
         <v>1435</v>
       </c>
       <c r="C263" t="s">
-        <v>782</v>
+        <v>1687</v>
       </c>
       <c r="D263" t="s">
         <v>782</v>
@@ -9203,7 +10496,7 @@
         <v>1435</v>
       </c>
       <c r="C264" t="s">
-        <v>785</v>
+        <v>1688</v>
       </c>
       <c r="D264" t="s">
         <v>785</v>
@@ -9220,7 +10513,7 @@
         <v>1435</v>
       </c>
       <c r="C265" t="s">
-        <v>788</v>
+        <v>1689</v>
       </c>
       <c r="D265" t="s">
         <v>788</v>
@@ -9237,7 +10530,7 @@
         <v>1435</v>
       </c>
       <c r="C266" t="s">
-        <v>791</v>
+        <v>1690</v>
       </c>
       <c r="D266" t="s">
         <v>791</v>
@@ -9254,7 +10547,7 @@
         <v>1435</v>
       </c>
       <c r="C267" t="s">
-        <v>794</v>
+        <v>1691</v>
       </c>
       <c r="D267" t="s">
         <v>794</v>
@@ -9271,7 +10564,7 @@
         <v>1435</v>
       </c>
       <c r="C268" t="s">
-        <v>797</v>
+        <v>1692</v>
       </c>
       <c r="D268" t="s">
         <v>797</v>
@@ -9288,7 +10581,7 @@
         <v>1435</v>
       </c>
       <c r="C269" t="s">
-        <v>800</v>
+        <v>1693</v>
       </c>
       <c r="D269" t="s">
         <v>800</v>
@@ -9305,7 +10598,7 @@
         <v>1435</v>
       </c>
       <c r="C270" t="s">
-        <v>803</v>
+        <v>1694</v>
       </c>
       <c r="D270" t="s">
         <v>803</v>
@@ -9322,7 +10615,7 @@
         <v>1435</v>
       </c>
       <c r="C271" t="s">
-        <v>806</v>
+        <v>1695</v>
       </c>
       <c r="D271" t="s">
         <v>806</v>
@@ -9339,7 +10632,7 @@
         <v>1435</v>
       </c>
       <c r="C272" t="s">
-        <v>809</v>
+        <v>1696</v>
       </c>
       <c r="D272" t="s">
         <v>809</v>
@@ -9356,7 +10649,7 @@
         <v>1435</v>
       </c>
       <c r="C273" t="s">
-        <v>812</v>
+        <v>1697</v>
       </c>
       <c r="D273" t="s">
         <v>812</v>
@@ -9373,7 +10666,7 @@
         <v>1435</v>
       </c>
       <c r="C274" t="s">
-        <v>815</v>
+        <v>1698</v>
       </c>
       <c r="D274" t="s">
         <v>815</v>
@@ -9390,7 +10683,7 @@
         <v>1435</v>
       </c>
       <c r="C275" t="s">
-        <v>818</v>
+        <v>1699</v>
       </c>
       <c r="D275" t="s">
         <v>818</v>
@@ -9407,7 +10700,7 @@
         <v>1435</v>
       </c>
       <c r="C276" t="s">
-        <v>821</v>
+        <v>1700</v>
       </c>
       <c r="D276" t="s">
         <v>821</v>
@@ -9424,7 +10717,7 @@
         <v>1435</v>
       </c>
       <c r="C277" t="s">
-        <v>824</v>
+        <v>1701</v>
       </c>
       <c r="D277" t="s">
         <v>824</v>
@@ -9441,7 +10734,7 @@
         <v>1435</v>
       </c>
       <c r="C278" t="s">
-        <v>827</v>
+        <v>1702</v>
       </c>
       <c r="D278" t="s">
         <v>827</v>
@@ -9458,7 +10751,7 @@
         <v>1435</v>
       </c>
       <c r="C279" t="s">
-        <v>830</v>
+        <v>1703</v>
       </c>
       <c r="D279" t="s">
         <v>830</v>
@@ -9475,7 +10768,7 @@
         <v>1435</v>
       </c>
       <c r="C280" t="s">
-        <v>833</v>
+        <v>1704</v>
       </c>
       <c r="D280" t="s">
         <v>833</v>
@@ -9492,7 +10785,7 @@
         <v>1435</v>
       </c>
       <c r="C281" t="s">
-        <v>836</v>
+        <v>1705</v>
       </c>
       <c r="D281" t="s">
         <v>836</v>
@@ -9509,7 +10802,7 @@
         <v>1435</v>
       </c>
       <c r="C282" t="s">
-        <v>839</v>
+        <v>1706</v>
       </c>
       <c r="D282" t="s">
         <v>839</v>
@@ -9526,7 +10819,7 @@
         <v>1435</v>
       </c>
       <c r="C283" t="s">
-        <v>842</v>
+        <v>1707</v>
       </c>
       <c r="D283" t="s">
         <v>842</v>
@@ -9543,7 +10836,7 @@
         <v>1435</v>
       </c>
       <c r="C284" t="s">
-        <v>845</v>
+        <v>1708</v>
       </c>
       <c r="D284" t="s">
         <v>845</v>
@@ -9560,7 +10853,7 @@
         <v>1435</v>
       </c>
       <c r="C285" t="s">
-        <v>848</v>
+        <v>1709</v>
       </c>
       <c r="D285" t="s">
         <v>848</v>
@@ -9577,7 +10870,7 @@
         <v>1435</v>
       </c>
       <c r="C286" t="s">
-        <v>851</v>
+        <v>1710</v>
       </c>
       <c r="D286" t="s">
         <v>851</v>
@@ -9594,7 +10887,7 @@
         <v>1435</v>
       </c>
       <c r="C287" t="s">
-        <v>854</v>
+        <v>1711</v>
       </c>
       <c r="D287" t="s">
         <v>854</v>
@@ -9611,7 +10904,7 @@
         <v>1435</v>
       </c>
       <c r="C288" t="s">
-        <v>857</v>
+        <v>1712</v>
       </c>
       <c r="D288" t="s">
         <v>857</v>
@@ -9645,7 +10938,7 @@
         <v>1435</v>
       </c>
       <c r="C290" t="s">
-        <v>863</v>
+        <v>1713</v>
       </c>
       <c r="D290" t="s">
         <v>863</v>
@@ -9662,7 +10955,7 @@
         <v>1435</v>
       </c>
       <c r="C291" t="s">
-        <v>866</v>
+        <v>1714</v>
       </c>
       <c r="D291" t="s">
         <v>866</v>
@@ -9696,7 +10989,7 @@
         <v>1435</v>
       </c>
       <c r="C293" t="s">
-        <v>872</v>
+        <v>1694</v>
       </c>
       <c r="D293" t="s">
         <v>872</v>
@@ -9713,7 +11006,7 @@
         <v>1435</v>
       </c>
       <c r="C294" t="s">
-        <v>875</v>
+        <v>1715</v>
       </c>
       <c r="D294" t="s">
         <v>875</v>
@@ -9730,7 +11023,7 @@
         <v>1435</v>
       </c>
       <c r="C295" t="s">
-        <v>878</v>
+        <v>1716</v>
       </c>
       <c r="D295" t="s">
         <v>878</v>
@@ -9747,7 +11040,7 @@
         <v>1435</v>
       </c>
       <c r="C296" t="s">
-        <v>881</v>
+        <v>1717</v>
       </c>
       <c r="D296" t="s">
         <v>881</v>
@@ -9764,7 +11057,7 @@
         <v>1435</v>
       </c>
       <c r="C297" t="s">
-        <v>884</v>
+        <v>1718</v>
       </c>
       <c r="D297" t="s">
         <v>884</v>
@@ -9781,7 +11074,7 @@
         <v>1435</v>
       </c>
       <c r="C298" t="s">
-        <v>887</v>
+        <v>1719</v>
       </c>
       <c r="D298" t="s">
         <v>887</v>
@@ -9798,7 +11091,7 @@
         <v>1435</v>
       </c>
       <c r="C299" t="s">
-        <v>890</v>
+        <v>1720</v>
       </c>
       <c r="D299" t="s">
         <v>890</v>
@@ -9815,7 +11108,7 @@
         <v>1435</v>
       </c>
       <c r="C300" t="s">
-        <v>893</v>
+        <v>1721</v>
       </c>
       <c r="D300" t="s">
         <v>893</v>
@@ -9832,7 +11125,7 @@
         <v>1435</v>
       </c>
       <c r="C301" t="s">
-        <v>896</v>
+        <v>1722</v>
       </c>
       <c r="D301" t="s">
         <v>896</v>
@@ -9849,7 +11142,7 @@
         <v>1435</v>
       </c>
       <c r="C302" t="s">
-        <v>899</v>
+        <v>1723</v>
       </c>
       <c r="D302" t="s">
         <v>899</v>
@@ -9866,7 +11159,7 @@
         <v>1435</v>
       </c>
       <c r="C303" t="s">
-        <v>902</v>
+        <v>1724</v>
       </c>
       <c r="D303" t="s">
         <v>902</v>
@@ -9883,7 +11176,7 @@
         <v>1435</v>
       </c>
       <c r="C304" t="s">
-        <v>905</v>
+        <v>1725</v>
       </c>
       <c r="D304" t="s">
         <v>905</v>
@@ -9900,7 +11193,7 @@
         <v>1435</v>
       </c>
       <c r="C305" t="s">
-        <v>908</v>
+        <v>1726</v>
       </c>
       <c r="D305" t="s">
         <v>908</v>
@@ -9917,7 +11210,7 @@
         <v>1435</v>
       </c>
       <c r="C306" t="s">
-        <v>911</v>
+        <v>1727</v>
       </c>
       <c r="D306" t="s">
         <v>911</v>
@@ -9934,7 +11227,7 @@
         <v>1435</v>
       </c>
       <c r="C307" t="s">
-        <v>914</v>
+        <v>1728</v>
       </c>
       <c r="D307" t="s">
         <v>914</v>
@@ -9951,7 +11244,7 @@
         <v>1435</v>
       </c>
       <c r="C308" t="s">
-        <v>917</v>
+        <v>1716</v>
       </c>
       <c r="D308" t="s">
         <v>917</v>
@@ -9968,7 +11261,7 @@
         <v>1435</v>
       </c>
       <c r="C309" t="s">
-        <v>920</v>
+        <v>1729</v>
       </c>
       <c r="D309" t="s">
         <v>920</v>
@@ -9985,7 +11278,7 @@
         <v>1435</v>
       </c>
       <c r="C310" t="s">
-        <v>923</v>
+        <v>1730</v>
       </c>
       <c r="D310" t="s">
         <v>923</v>
@@ -10002,7 +11295,7 @@
         <v>1435</v>
       </c>
       <c r="C311" t="s">
-        <v>824</v>
+        <v>1701</v>
       </c>
       <c r="D311" t="s">
         <v>824</v>
@@ -10019,7 +11312,7 @@
         <v>1435</v>
       </c>
       <c r="C312" t="s">
-        <v>928</v>
+        <v>1731</v>
       </c>
       <c r="D312" t="s">
         <v>928</v>
@@ -10036,7 +11329,7 @@
         <v>1435</v>
       </c>
       <c r="C313" t="s">
-        <v>931</v>
+        <v>1732</v>
       </c>
       <c r="D313" t="s">
         <v>931</v>
@@ -10053,7 +11346,7 @@
         <v>1435</v>
       </c>
       <c r="C314" t="s">
-        <v>934</v>
+        <v>1680</v>
       </c>
       <c r="D314" t="s">
         <v>934</v>
@@ -10070,7 +11363,7 @@
         <v>1435</v>
       </c>
       <c r="C315" t="s">
-        <v>937</v>
+        <v>1733</v>
       </c>
       <c r="D315" t="s">
         <v>937</v>
@@ -10087,7 +11380,7 @@
         <v>1435</v>
       </c>
       <c r="C316" t="s">
-        <v>940</v>
+        <v>1734</v>
       </c>
       <c r="D316" t="s">
         <v>940</v>
@@ -10104,7 +11397,7 @@
         <v>1435</v>
       </c>
       <c r="C317" t="s">
-        <v>943</v>
+        <v>1735</v>
       </c>
       <c r="D317" t="s">
         <v>943</v>
@@ -10121,7 +11414,7 @@
         <v>1435</v>
       </c>
       <c r="C318" t="s">
-        <v>946</v>
+        <v>1736</v>
       </c>
       <c r="D318" t="s">
         <v>946</v>
@@ -10138,7 +11431,7 @@
         <v>1435</v>
       </c>
       <c r="C319" t="s">
-        <v>949</v>
+        <v>1737</v>
       </c>
       <c r="D319" t="s">
         <v>949</v>
@@ -10155,7 +11448,7 @@
         <v>1435</v>
       </c>
       <c r="C320" t="s">
-        <v>952</v>
+        <v>1738</v>
       </c>
       <c r="D320" t="s">
         <v>952</v>
@@ -10172,7 +11465,7 @@
         <v>1435</v>
       </c>
       <c r="C321" t="s">
-        <v>955</v>
+        <v>1739</v>
       </c>
       <c r="D321" t="s">
         <v>955</v>
@@ -10189,7 +11482,7 @@
         <v>1435</v>
       </c>
       <c r="C322" t="s">
-        <v>958</v>
+        <v>1740</v>
       </c>
       <c r="D322" t="s">
         <v>958</v>
@@ -10206,7 +11499,7 @@
         <v>1435</v>
       </c>
       <c r="C323" t="s">
-        <v>961</v>
+        <v>1741</v>
       </c>
       <c r="D323" t="s">
         <v>961</v>
@@ -10223,7 +11516,7 @@
         <v>1435</v>
       </c>
       <c r="C324" t="s">
-        <v>964</v>
+        <v>1742</v>
       </c>
       <c r="D324" t="s">
         <v>964</v>
@@ -10240,7 +11533,7 @@
         <v>1435</v>
       </c>
       <c r="C325" t="s">
-        <v>887</v>
+        <v>1719</v>
       </c>
       <c r="D325" t="s">
         <v>887</v>
@@ -10257,7 +11550,7 @@
         <v>1435</v>
       </c>
       <c r="C326" t="s">
-        <v>969</v>
+        <v>1743</v>
       </c>
       <c r="D326" t="s">
         <v>969</v>
@@ -10274,7 +11567,7 @@
         <v>1435</v>
       </c>
       <c r="C327" t="s">
-        <v>972</v>
+        <v>1744</v>
       </c>
       <c r="D327" t="s">
         <v>972</v>
@@ -10291,7 +11584,7 @@
         <v>1435</v>
       </c>
       <c r="C328" t="s">
-        <v>975</v>
+        <v>1745</v>
       </c>
       <c r="D328" t="s">
         <v>975</v>
@@ -10308,7 +11601,7 @@
         <v>1435</v>
       </c>
       <c r="C329" t="s">
-        <v>978</v>
+        <v>1746</v>
       </c>
       <c r="D329" t="s">
         <v>978</v>
@@ -10325,7 +11618,7 @@
         <v>1435</v>
       </c>
       <c r="C330" t="s">
-        <v>981</v>
+        <v>1747</v>
       </c>
       <c r="D330" t="s">
         <v>981</v>
@@ -10342,7 +11635,7 @@
         <v>1435</v>
       </c>
       <c r="C331" t="s">
-        <v>984</v>
+        <v>1748</v>
       </c>
       <c r="D331" t="s">
         <v>984</v>
@@ -10359,7 +11652,7 @@
         <v>1435</v>
       </c>
       <c r="C332" t="s">
-        <v>987</v>
+        <v>1749</v>
       </c>
       <c r="D332" t="s">
         <v>987</v>
@@ -10376,7 +11669,7 @@
         <v>1435</v>
       </c>
       <c r="C333" t="s">
-        <v>990</v>
+        <v>1750</v>
       </c>
       <c r="D333" t="s">
         <v>990</v>
@@ -10393,7 +11686,7 @@
         <v>1435</v>
       </c>
       <c r="C334" t="s">
-        <v>993</v>
+        <v>1751</v>
       </c>
       <c r="D334" t="s">
         <v>993</v>
@@ -10410,7 +11703,7 @@
         <v>1435</v>
       </c>
       <c r="C335" t="s">
-        <v>996</v>
+        <v>1752</v>
       </c>
       <c r="D335" t="s">
         <v>996</v>
@@ -10427,7 +11720,7 @@
         <v>1435</v>
       </c>
       <c r="C336" t="s">
-        <v>999</v>
+        <v>1753</v>
       </c>
       <c r="D336" t="s">
         <v>999</v>
@@ -10444,7 +11737,7 @@
         <v>1435</v>
       </c>
       <c r="C337" t="s">
-        <v>1002</v>
+        <v>1754</v>
       </c>
       <c r="D337" t="s">
         <v>1002</v>
@@ -10461,7 +11754,7 @@
         <v>1435</v>
       </c>
       <c r="C338" t="s">
-        <v>1005</v>
+        <v>1755</v>
       </c>
       <c r="D338" t="s">
         <v>1005</v>
@@ -10478,7 +11771,7 @@
         <v>1435</v>
       </c>
       <c r="C339" t="s">
-        <v>1008</v>
+        <v>1756</v>
       </c>
       <c r="D339" t="s">
         <v>1008</v>
@@ -10495,7 +11788,7 @@
         <v>1435</v>
       </c>
       <c r="C340" t="s">
-        <v>1011</v>
+        <v>1757</v>
       </c>
       <c r="D340" t="s">
         <v>1011</v>
@@ -10512,7 +11805,7 @@
         <v>1435</v>
       </c>
       <c r="C341" t="s">
-        <v>1014</v>
+        <v>1758</v>
       </c>
       <c r="D341" t="s">
         <v>1014</v>
@@ -10529,7 +11822,7 @@
         <v>1435</v>
       </c>
       <c r="C342" t="s">
-        <v>1017</v>
+        <v>1759</v>
       </c>
       <c r="D342" t="s">
         <v>1017</v>
@@ -10546,7 +11839,7 @@
         <v>1435</v>
       </c>
       <c r="C343" t="s">
-        <v>1020</v>
+        <v>1760</v>
       </c>
       <c r="D343" t="s">
         <v>1020</v>
@@ -10563,7 +11856,7 @@
         <v>1435</v>
       </c>
       <c r="C344" t="s">
-        <v>1023</v>
+        <v>1761</v>
       </c>
       <c r="D344" t="s">
         <v>1023</v>
@@ -10580,7 +11873,7 @@
         <v>1435</v>
       </c>
       <c r="C345" t="s">
-        <v>1026</v>
+        <v>1762</v>
       </c>
       <c r="D345" t="s">
         <v>1026</v>
@@ -10597,7 +11890,7 @@
         <v>1435</v>
       </c>
       <c r="C346" t="s">
-        <v>1029</v>
+        <v>1763</v>
       </c>
       <c r="D346" t="s">
         <v>1029</v>
@@ -10614,7 +11907,7 @@
         <v>1435</v>
       </c>
       <c r="C347" t="s">
-        <v>1032</v>
+        <v>1764</v>
       </c>
       <c r="D347" t="s">
         <v>1032</v>
@@ -10631,7 +11924,7 @@
         <v>1435</v>
       </c>
       <c r="C348" t="s">
-        <v>1035</v>
+        <v>1765</v>
       </c>
       <c r="D348" t="s">
         <v>1035</v>
@@ -10648,7 +11941,7 @@
         <v>1435</v>
       </c>
       <c r="C349" t="s">
-        <v>1038</v>
+        <v>1766</v>
       </c>
       <c r="D349" t="s">
         <v>1038</v>
@@ -10665,7 +11958,7 @@
         <v>1435</v>
       </c>
       <c r="C350" t="s">
-        <v>1041</v>
+        <v>1767</v>
       </c>
       <c r="D350" t="s">
         <v>1041</v>
@@ -10682,7 +11975,7 @@
         <v>1435</v>
       </c>
       <c r="C351" t="s">
-        <v>1044</v>
+        <v>1768</v>
       </c>
       <c r="D351" t="s">
         <v>1044</v>
@@ -10699,7 +11992,7 @@
         <v>1435</v>
       </c>
       <c r="C352" t="s">
-        <v>1047</v>
+        <v>1769</v>
       </c>
       <c r="D352" t="s">
         <v>1047</v>
@@ -10716,7 +12009,7 @@
         <v>1435</v>
       </c>
       <c r="C353" t="s">
-        <v>1050</v>
+        <v>1770</v>
       </c>
       <c r="D353" t="s">
         <v>1050</v>
@@ -10733,7 +12026,7 @@
         <v>1435</v>
       </c>
       <c r="C354" t="s">
-        <v>1053</v>
+        <v>1771</v>
       </c>
       <c r="D354" t="s">
         <v>1053</v>
@@ -10750,7 +12043,7 @@
         <v>1435</v>
       </c>
       <c r="C355" t="s">
-        <v>1056</v>
+        <v>1772</v>
       </c>
       <c r="D355" t="s">
         <v>1056</v>
@@ -10767,7 +12060,7 @@
         <v>1435</v>
       </c>
       <c r="C356" t="s">
-        <v>1059</v>
+        <v>1773</v>
       </c>
       <c r="D356" t="s">
         <v>1059</v>
@@ -10784,7 +12077,7 @@
         <v>1435</v>
       </c>
       <c r="C357" t="s">
-        <v>1062</v>
+        <v>1774</v>
       </c>
       <c r="D357" t="s">
         <v>1062</v>
@@ -10801,7 +12094,7 @@
         <v>1435</v>
       </c>
       <c r="C358" t="s">
-        <v>1065</v>
+        <v>1775</v>
       </c>
       <c r="D358" t="s">
         <v>1065</v>
@@ -10818,7 +12111,7 @@
         <v>1435</v>
       </c>
       <c r="C359" t="s">
-        <v>1067</v>
+        <v>1776</v>
       </c>
       <c r="D359" t="s">
         <v>1067</v>
@@ -10835,7 +12128,7 @@
         <v>1435</v>
       </c>
       <c r="C360" t="s">
-        <v>1070</v>
+        <v>1777</v>
       </c>
       <c r="D360" t="s">
         <v>1070</v>
@@ -10852,7 +12145,7 @@
         <v>1435</v>
       </c>
       <c r="C361" t="s">
-        <v>1073</v>
+        <v>1778</v>
       </c>
       <c r="D361" t="s">
         <v>1073</v>
@@ -10869,7 +12162,7 @@
         <v>1435</v>
       </c>
       <c r="C362" t="s">
-        <v>1076</v>
+        <v>1779</v>
       </c>
       <c r="D362" t="s">
         <v>1076</v>
@@ -10886,7 +12179,7 @@
         <v>1435</v>
       </c>
       <c r="C363" t="s">
-        <v>881</v>
+        <v>1717</v>
       </c>
       <c r="D363" t="s">
         <v>881</v>
@@ -10903,7 +12196,7 @@
         <v>1435</v>
       </c>
       <c r="C364" t="s">
-        <v>1081</v>
+        <v>1780</v>
       </c>
       <c r="D364" t="s">
         <v>1081</v>
@@ -10920,7 +12213,7 @@
         <v>1435</v>
       </c>
       <c r="C365" t="s">
-        <v>1084</v>
+        <v>1781</v>
       </c>
       <c r="D365" t="s">
         <v>1084</v>
@@ -10937,7 +12230,7 @@
         <v>1435</v>
       </c>
       <c r="C366" t="s">
-        <v>1087</v>
+        <v>1782</v>
       </c>
       <c r="D366" t="s">
         <v>1087</v>
@@ -10954,7 +12247,7 @@
         <v>1435</v>
       </c>
       <c r="C367" t="s">
-        <v>1090</v>
+        <v>1783</v>
       </c>
       <c r="D367" t="s">
         <v>1090</v>
@@ -10971,7 +12264,7 @@
         <v>1435</v>
       </c>
       <c r="C368" t="s">
-        <v>770</v>
+        <v>1684</v>
       </c>
       <c r="D368" t="s">
         <v>770</v>
@@ -10988,7 +12281,7 @@
         <v>1435</v>
       </c>
       <c r="C369" t="s">
-        <v>1095</v>
+        <v>1784</v>
       </c>
       <c r="D369" t="s">
         <v>1095</v>
@@ -11005,7 +12298,7 @@
         <v>1435</v>
       </c>
       <c r="C370" t="s">
-        <v>1098</v>
+        <v>1785</v>
       </c>
       <c r="D370" t="s">
         <v>1098</v>
@@ -11022,7 +12315,7 @@
         <v>1435</v>
       </c>
       <c r="C371" t="s">
-        <v>1101</v>
+        <v>1786</v>
       </c>
       <c r="D371" t="s">
         <v>1101</v>
@@ -11039,7 +12332,7 @@
         <v>1435</v>
       </c>
       <c r="C372" t="s">
-        <v>1104</v>
+        <v>1787</v>
       </c>
       <c r="D372" t="s">
         <v>1104</v>
@@ -11056,7 +12349,7 @@
         <v>1435</v>
       </c>
       <c r="C373" t="s">
-        <v>1107</v>
+        <v>1788</v>
       </c>
       <c r="D373" t="s">
         <v>1107</v>
@@ -11073,7 +12366,7 @@
         <v>1435</v>
       </c>
       <c r="C374" t="s">
-        <v>1110</v>
+        <v>1789</v>
       </c>
       <c r="D374" t="s">
         <v>1110</v>
@@ -11090,7 +12383,7 @@
         <v>1435</v>
       </c>
       <c r="C375" t="s">
-        <v>1113</v>
+        <v>1790</v>
       </c>
       <c r="D375" t="s">
         <v>1113</v>
@@ -11107,7 +12400,7 @@
         <v>1435</v>
       </c>
       <c r="C376" t="s">
-        <v>1116</v>
+        <v>1791</v>
       </c>
       <c r="D376" t="s">
         <v>1116</v>
@@ -11124,7 +12417,7 @@
         <v>1435</v>
       </c>
       <c r="C377" t="s">
-        <v>1119</v>
+        <v>1792</v>
       </c>
       <c r="D377" t="s">
         <v>1119</v>
@@ -11141,7 +12434,7 @@
         <v>1435</v>
       </c>
       <c r="C378" t="s">
-        <v>1122</v>
+        <v>1793</v>
       </c>
       <c r="D378" t="s">
         <v>1122</v>
@@ -11158,7 +12451,7 @@
         <v>1435</v>
       </c>
       <c r="C379" t="s">
-        <v>1125</v>
+        <v>1794</v>
       </c>
       <c r="D379" t="s">
         <v>1125</v>
@@ -11175,7 +12468,7 @@
         <v>1435</v>
       </c>
       <c r="C380" t="s">
-        <v>1128</v>
+        <v>1795</v>
       </c>
       <c r="D380" t="s">
         <v>1128</v>
@@ -11192,7 +12485,7 @@
         <v>1435</v>
       </c>
       <c r="C381" t="s">
-        <v>1131</v>
+        <v>1796</v>
       </c>
       <c r="D381" t="s">
         <v>1131</v>
@@ -11209,7 +12502,7 @@
         <v>1435</v>
       </c>
       <c r="C382" t="s">
-        <v>1134</v>
+        <v>1797</v>
       </c>
       <c r="D382" t="s">
         <v>1134</v>
@@ -11226,7 +12519,7 @@
         <v>1435</v>
       </c>
       <c r="C383" t="s">
-        <v>1137</v>
+        <v>1798</v>
       </c>
       <c r="D383" t="s">
         <v>1137</v>
@@ -11254,7 +12547,7 @@
         <v>1435</v>
       </c>
       <c r="C385" t="s">
-        <v>1142</v>
+        <v>1799</v>
       </c>
       <c r="D385" t="s">
         <v>1142</v>
@@ -11271,7 +12564,7 @@
         <v>1435</v>
       </c>
       <c r="C386" t="s">
-        <v>1145</v>
+        <v>1800</v>
       </c>
       <c r="D386" t="s">
         <v>1145</v>
@@ -11288,7 +12581,7 @@
         <v>1435</v>
       </c>
       <c r="C387" t="s">
-        <v>1148</v>
+        <v>1801</v>
       </c>
       <c r="D387" t="s">
         <v>1148</v>
@@ -11305,7 +12598,7 @@
         <v>1435</v>
       </c>
       <c r="C388" t="s">
-        <v>1151</v>
+        <v>1802</v>
       </c>
       <c r="D388" t="s">
         <v>1151</v>
@@ -11322,7 +12615,7 @@
         <v>1435</v>
       </c>
       <c r="C389" t="s">
-        <v>1154</v>
+        <v>1803</v>
       </c>
       <c r="D389" t="s">
         <v>1154</v>
@@ -11339,7 +12632,7 @@
         <v>1435</v>
       </c>
       <c r="C390" t="s">
-        <v>1157</v>
+        <v>1804</v>
       </c>
       <c r="D390" t="s">
         <v>1157</v>
@@ -11356,7 +12649,7 @@
         <v>1435</v>
       </c>
       <c r="C391" t="s">
-        <v>1160</v>
+        <v>1805</v>
       </c>
       <c r="D391" t="s">
         <v>1160</v>
@@ -11373,7 +12666,7 @@
         <v>1435</v>
       </c>
       <c r="C392" t="s">
-        <v>1163</v>
+        <v>1806</v>
       </c>
       <c r="D392" t="s">
         <v>1163</v>
@@ -11390,7 +12683,7 @@
         <v>1435</v>
       </c>
       <c r="C393" t="s">
-        <v>1166</v>
+        <v>1807</v>
       </c>
       <c r="D393" t="s">
         <v>1166</v>
@@ -11407,7 +12700,7 @@
         <v>1435</v>
       </c>
       <c r="C394" t="s">
-        <v>1169</v>
+        <v>1808</v>
       </c>
       <c r="D394" t="s">
         <v>1169</v>
@@ -11424,7 +12717,7 @@
         <v>1435</v>
       </c>
       <c r="C395" t="s">
-        <v>1172</v>
+        <v>1809</v>
       </c>
       <c r="D395" t="s">
         <v>1172</v>
@@ -11441,7 +12734,7 @@
         <v>1435</v>
       </c>
       <c r="C396" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D396" t="s">
         <v>1175</v>
@@ -11475,7 +12768,7 @@
         <v>1435</v>
       </c>
       <c r="C398" t="s">
-        <v>1180</v>
+        <v>1810</v>
       </c>
       <c r="D398" t="s">
         <v>1180</v>
@@ -11492,7 +12785,7 @@
         <v>1435</v>
       </c>
       <c r="C399" t="s">
-        <v>1183</v>
+        <v>1811</v>
       </c>
       <c r="D399" t="s">
         <v>1183</v>
@@ -11537,7 +12830,7 @@
         <v>1435</v>
       </c>
       <c r="C402" t="s">
-        <v>1191</v>
+        <v>1812</v>
       </c>
       <c r="D402" t="s">
         <v>1191</v>
@@ -11554,7 +12847,7 @@
         <v>1435</v>
       </c>
       <c r="C403" t="s">
-        <v>1194</v>
+        <v>1813</v>
       </c>
       <c r="D403" t="s">
         <v>1194</v>
@@ -11571,7 +12864,7 @@
         <v>1435</v>
       </c>
       <c r="C404" t="s">
-        <v>1197</v>
+        <v>1814</v>
       </c>
       <c r="D404" t="s">
         <v>1197</v>
@@ -11599,7 +12892,7 @@
         <v>1435</v>
       </c>
       <c r="C406" t="s">
-        <v>1202</v>
+        <v>1811</v>
       </c>
       <c r="D406" t="s">
         <v>1202</v>
@@ -11633,7 +12926,7 @@
         <v>1435</v>
       </c>
       <c r="C408" t="s">
-        <v>1208</v>
+        <v>1815</v>
       </c>
       <c r="D408" t="s">
         <v>1208</v>
@@ -11650,7 +12943,7 @@
         <v>1435</v>
       </c>
       <c r="C409" t="s">
-        <v>1211</v>
+        <v>1816</v>
       </c>
       <c r="D409" t="s">
         <v>1211</v>
@@ -11684,7 +12977,7 @@
         <v>1435</v>
       </c>
       <c r="C411" t="s">
-        <v>1217</v>
+        <v>1817</v>
       </c>
       <c r="D411" t="s">
         <v>1217</v>
@@ -11701,7 +12994,7 @@
         <v>1435</v>
       </c>
       <c r="C412" t="s">
-        <v>1220</v>
+        <v>1818</v>
       </c>
       <c r="D412" t="s">
         <v>1220</v>
@@ -11718,7 +13011,7 @@
         <v>1435</v>
       </c>
       <c r="C413" t="s">
-        <v>1223</v>
+        <v>1819</v>
       </c>
       <c r="D413" t="s">
         <v>1223</v>
@@ -11735,7 +13028,7 @@
         <v>1435</v>
       </c>
       <c r="C414" t="s">
-        <v>1226</v>
+        <v>1820</v>
       </c>
       <c r="D414" t="s">
         <v>1226</v>
@@ -11752,7 +13045,7 @@
         <v>1435</v>
       </c>
       <c r="C415" t="s">
-        <v>1229</v>
+        <v>1821</v>
       </c>
       <c r="D415" t="s">
         <v>1229</v>
@@ -11769,7 +13062,7 @@
         <v>1435</v>
       </c>
       <c r="C416" t="s">
-        <v>1232</v>
+        <v>1822</v>
       </c>
       <c r="D416" t="s">
         <v>1232</v>
@@ -11786,7 +13079,7 @@
         <v>1435</v>
       </c>
       <c r="C417" t="s">
-        <v>1234</v>
+        <v>1823</v>
       </c>
       <c r="D417" t="s">
         <v>1234</v>
@@ -11814,7 +13107,7 @@
         <v>1435</v>
       </c>
       <c r="C419" t="s">
-        <v>1239</v>
+        <v>1824</v>
       </c>
       <c r="D419" t="s">
         <v>1239</v>
@@ -11831,7 +13124,7 @@
         <v>1435</v>
       </c>
       <c r="C420" t="s">
-        <v>1242</v>
+        <v>1825</v>
       </c>
       <c r="D420" t="s">
         <v>1242</v>
@@ -11887,7 +13180,7 @@
         <v>1435</v>
       </c>
       <c r="C424" t="s">
-        <v>1252</v>
+        <v>1826</v>
       </c>
       <c r="D424" t="s">
         <v>1252</v>
@@ -11904,7 +13197,7 @@
         <v>1435</v>
       </c>
       <c r="C425" t="s">
-        <v>1255</v>
+        <v>1827</v>
       </c>
       <c r="D425" t="s">
         <v>1255</v>
@@ -11921,7 +13214,7 @@
         <v>1435</v>
       </c>
       <c r="C426" t="s">
-        <v>1258</v>
+        <v>1828</v>
       </c>
       <c r="D426" t="s">
         <v>1258</v>
@@ -11938,7 +13231,7 @@
         <v>1435</v>
       </c>
       <c r="C427" t="s">
-        <v>1261</v>
+        <v>1829</v>
       </c>
       <c r="D427" t="s">
         <v>1261</v>
@@ -11955,7 +13248,7 @@
         <v>1435</v>
       </c>
       <c r="C428" t="s">
-        <v>1263</v>
+        <v>1830</v>
       </c>
       <c r="D428" t="s">
         <v>1263</v>
@@ -11972,7 +13265,7 @@
         <v>1435</v>
       </c>
       <c r="C429" t="s">
-        <v>1266</v>
+        <v>1802</v>
       </c>
       <c r="D429" t="s">
         <v>1266</v>
@@ -11989,7 +13282,7 @@
         <v>1435</v>
       </c>
       <c r="C430" t="s">
-        <v>1269</v>
+        <v>1831</v>
       </c>
       <c r="D430" t="s">
         <v>1269</v>
@@ -12023,7 +13316,7 @@
         <v>1435</v>
       </c>
       <c r="C432" t="s">
-        <v>1274</v>
+        <v>1832</v>
       </c>
       <c r="D432" t="s">
         <v>1274</v>
@@ -12040,7 +13333,7 @@
         <v>1435</v>
       </c>
       <c r="C433" t="s">
-        <v>1277</v>
+        <v>1833</v>
       </c>
       <c r="D433" t="s">
         <v>1277</v>
@@ -12057,7 +13350,7 @@
         <v>1435</v>
       </c>
       <c r="C434" t="s">
-        <v>1280</v>
+        <v>1834</v>
       </c>
       <c r="D434" t="s">
         <v>1280</v>
@@ -12074,7 +13367,7 @@
         <v>1435</v>
       </c>
       <c r="C435" t="s">
-        <v>1283</v>
+        <v>1835</v>
       </c>
       <c r="D435" t="s">
         <v>1283</v>
@@ -12091,7 +13384,7 @@
         <v>1435</v>
       </c>
       <c r="C436" t="s">
-        <v>1286</v>
+        <v>1836</v>
       </c>
       <c r="D436" t="s">
         <v>1286</v>
@@ -12125,7 +13418,7 @@
         <v>1435</v>
       </c>
       <c r="C438" t="s">
-        <v>1292</v>
+        <v>1813</v>
       </c>
       <c r="D438" t="s">
         <v>1292</v>
@@ -12142,7 +13435,7 @@
         <v>1435</v>
       </c>
       <c r="C439" t="s">
-        <v>1295</v>
+        <v>1837</v>
       </c>
       <c r="D439" t="s">
         <v>1295</v>
@@ -12159,7 +13452,7 @@
         <v>1435</v>
       </c>
       <c r="C440" t="s">
-        <v>1298</v>
+        <v>1838</v>
       </c>
       <c r="D440" t="s">
         <v>1298</v>
@@ -12176,7 +13469,7 @@
         <v>1435</v>
       </c>
       <c r="C441" t="s">
-        <v>1301</v>
+        <v>1837</v>
       </c>
       <c r="D441" t="s">
         <v>1301</v>
@@ -12210,7 +13503,7 @@
         <v>1435</v>
       </c>
       <c r="C443" t="s">
-        <v>1307</v>
+        <v>1839</v>
       </c>
       <c r="D443" t="s">
         <v>1307</v>
@@ -12227,7 +13520,7 @@
         <v>1435</v>
       </c>
       <c r="C444" t="s">
-        <v>1310</v>
+        <v>1840</v>
       </c>
       <c r="D444" t="s">
         <v>1310</v>
@@ -12244,7 +13537,7 @@
         <v>1435</v>
       </c>
       <c r="C445" t="s">
-        <v>1313</v>
+        <v>1841</v>
       </c>
       <c r="D445" t="s">
         <v>1313</v>
@@ -12261,7 +13554,7 @@
         <v>1435</v>
       </c>
       <c r="C446" t="s">
-        <v>1316</v>
+        <v>1842</v>
       </c>
       <c r="D446" t="s">
         <v>1316</v>
@@ -12278,7 +13571,7 @@
         <v>1435</v>
       </c>
       <c r="C447" t="s">
-        <v>1319</v>
+        <v>1843</v>
       </c>
       <c r="D447" t="s">
         <v>1319</v>
@@ -12295,7 +13588,7 @@
         <v>1435</v>
       </c>
       <c r="C448" t="s">
-        <v>1322</v>
+        <v>1844</v>
       </c>
       <c r="D448" t="s">
         <v>1322</v>
@@ -12312,7 +13605,7 @@
         <v>1435</v>
       </c>
       <c r="C449" t="s">
-        <v>1325</v>
+        <v>1845</v>
       </c>
       <c r="D449" t="s">
         <v>1325</v>
@@ -12329,7 +13622,7 @@
         <v>1435</v>
       </c>
       <c r="C450" t="s">
-        <v>1328</v>
+        <v>1846</v>
       </c>
       <c r="D450" t="s">
         <v>1328</v>
@@ -12346,7 +13639,7 @@
         <v>1435</v>
       </c>
       <c r="C451" t="s">
-        <v>1331</v>
+        <v>1847</v>
       </c>
       <c r="D451" t="s">
         <v>1331</v>
@@ -12363,7 +13656,7 @@
         <v>1435</v>
       </c>
       <c r="C452" t="s">
-        <v>1334</v>
+        <v>1848</v>
       </c>
       <c r="D452" t="s">
         <v>1334</v>
@@ -12380,7 +13673,7 @@
         <v>1435</v>
       </c>
       <c r="C453" t="s">
-        <v>1337</v>
+        <v>1849</v>
       </c>
       <c r="D453" t="s">
         <v>1337</v>
@@ -12397,7 +13690,7 @@
         <v>1435</v>
       </c>
       <c r="C454" t="s">
-        <v>1340</v>
+        <v>1850</v>
       </c>
       <c r="D454" t="s">
         <v>1340</v>
@@ -12414,7 +13707,7 @@
         <v>1435</v>
       </c>
       <c r="C455" t="s">
-        <v>1343</v>
+        <v>1851</v>
       </c>
       <c r="D455" t="s">
         <v>1343</v>
@@ -12431,7 +13724,7 @@
         <v>1435</v>
       </c>
       <c r="C456" t="s">
-        <v>1346</v>
+        <v>1852</v>
       </c>
       <c r="D456" t="s">
         <v>1346</v>
@@ -12465,7 +13758,7 @@
         <v>1435</v>
       </c>
       <c r="C458" t="s">
-        <v>1352</v>
+        <v>1853</v>
       </c>
       <c r="D458" t="s">
         <v>1352</v>
@@ -12482,7 +13775,7 @@
         <v>1435</v>
       </c>
       <c r="C459" t="s">
-        <v>1355</v>
+        <v>1854</v>
       </c>
       <c r="D459" t="s">
         <v>1355</v>
@@ -12499,7 +13792,7 @@
         <v>1435</v>
       </c>
       <c r="C460" t="s">
-        <v>1358</v>
+        <v>1855</v>
       </c>
       <c r="D460" t="s">
         <v>1358</v>
@@ -12516,7 +13809,7 @@
         <v>1435</v>
       </c>
       <c r="C461" t="s">
-        <v>1361</v>
+        <v>1856</v>
       </c>
       <c r="D461" t="s">
         <v>1361</v>
@@ -12533,7 +13826,7 @@
         <v>1435</v>
       </c>
       <c r="C462" t="s">
-        <v>1364</v>
+        <v>1857</v>
       </c>
       <c r="D462" t="s">
         <v>1364</v>
@@ -12550,7 +13843,7 @@
         <v>1435</v>
       </c>
       <c r="C463" t="s">
-        <v>1366</v>
+        <v>1858</v>
       </c>
       <c r="D463" t="s">
         <v>1366</v>
@@ -12567,7 +13860,7 @@
         <v>1435</v>
       </c>
       <c r="C464" t="s">
-        <v>1369</v>
+        <v>1859</v>
       </c>
       <c r="D464" t="s">
         <v>1369</v>
@@ -12584,7 +13877,7 @@
         <v>1435</v>
       </c>
       <c r="C465" t="s">
-        <v>1371</v>
+        <v>1860</v>
       </c>
       <c r="D465" t="s">
         <v>1371</v>
@@ -12601,7 +13894,7 @@
         <v>1435</v>
       </c>
       <c r="C466" t="s">
-        <v>1374</v>
+        <v>1861</v>
       </c>
       <c r="D466" t="s">
         <v>1374</v>
@@ -12618,7 +13911,7 @@
         <v>1435</v>
       </c>
       <c r="C467" t="s">
-        <v>1376</v>
+        <v>1862</v>
       </c>
       <c r="D467" t="s">
         <v>1376</v>
@@ -12635,7 +13928,7 @@
         <v>1435</v>
       </c>
       <c r="C468" t="s">
-        <v>1379</v>
+        <v>1863</v>
       </c>
       <c r="D468" t="s">
         <v>1379</v>
@@ -12652,7 +13945,7 @@
         <v>1435</v>
       </c>
       <c r="C469" t="s">
-        <v>1382</v>
+        <v>1864</v>
       </c>
       <c r="D469" t="s">
         <v>1382</v>
@@ -12669,7 +13962,7 @@
         <v>1435</v>
       </c>
       <c r="C470" t="s">
-        <v>1385</v>
+        <v>1865</v>
       </c>
       <c r="D470" t="s">
         <v>1385</v>
@@ -12686,7 +13979,7 @@
         <v>1435</v>
       </c>
       <c r="C471" t="s">
-        <v>1388</v>
+        <v>1866</v>
       </c>
       <c r="D471" t="s">
         <v>1388</v>
@@ -12703,7 +13996,7 @@
         <v>1435</v>
       </c>
       <c r="C472" t="s">
-        <v>1391</v>
+        <v>1867</v>
       </c>
       <c r="D472" t="s">
         <v>1391</v>
@@ -12720,7 +14013,7 @@
         <v>1435</v>
       </c>
       <c r="C473" t="s">
-        <v>1394</v>
+        <v>1868</v>
       </c>
       <c r="D473" t="s">
         <v>1394</v>
@@ -12737,7 +14030,7 @@
         <v>1435</v>
       </c>
       <c r="C474" t="s">
-        <v>1397</v>
+        <v>1869</v>
       </c>
       <c r="D474" t="s">
         <v>1397</v>
@@ -12890,7 +14183,7 @@
         <v>1435</v>
       </c>
       <c r="C483" t="s">
-        <v>1424</v>
+        <v>1870</v>
       </c>
       <c r="D483" t="s">
         <v>1424</v>
@@ -12907,7 +14200,7 @@
         <v>1435</v>
       </c>
       <c r="C484" t="s">
-        <v>1427</v>
+        <v>1871</v>
       </c>
       <c r="D484" t="s">
         <v>1427</v>
@@ -12924,7 +14217,7 @@
         <v>1441</v>
       </c>
       <c r="C485" t="s">
-        <v>1430</v>
+        <v>1872</v>
       </c>
       <c r="D485" t="s">
         <v>1430</v>
@@ -12941,7 +14234,7 @@
         <v>1442</v>
       </c>
       <c r="C486" t="s">
-        <v>1433</v>
+        <v>1873</v>
       </c>
       <c r="D486" t="s">
         <v>1433</v>

--- a/PTBR/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR/Lang/PTBR/Game/Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450C359-5983-4421-B276-2FE52DDA938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDACBA6-2A21-47B5-A190-4EA0B40C16E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Word!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -6038,8 +6025,8 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PTBR/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR/Lang/PTBR/Game/Word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB5B13-89EB-4643-A8F0-EBB7400B53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A9BDE-A4D3-4848-B30A-EAAF0999F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Word" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1877">
   <si>
     <t>id</t>
   </si>
@@ -4936,9 +4936,6 @@
     <t>Velho Caranguejo</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Porco Imundo</t>
   </si>
   <si>
@@ -5645,13 +5642,25 @@
   </si>
   <si>
     <t>Minha Mãezinha</t>
+  </si>
+  <si>
+    <t>Revelador</t>
+  </si>
+  <si>
+    <t>Senhor das Águas</t>
+  </si>
+  <si>
+    <t>Filho do Céu</t>
+  </si>
+  <si>
+    <t>Imperador Celestial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6025,18 +6034,18 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C474" sqref="C474"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1043</v>
       </c>
@@ -6061,13 +6070,13 @@
         <v>1288</v>
       </c>
       <c r="C3" t="s">
-        <v>1637</v>
+        <v>1873</v>
       </c>
       <c r="E3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1054</v>
       </c>
@@ -6075,13 +6084,13 @@
         <v>1288</v>
       </c>
       <c r="C4" t="s">
-        <v>1637</v>
+        <v>1874</v>
       </c>
       <c r="E4" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1091</v>
       </c>
@@ -6089,13 +6098,13 @@
         <v>1288</v>
       </c>
       <c r="C5" t="s">
-        <v>1637</v>
+        <v>1875</v>
       </c>
       <c r="E5" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1099</v>
       </c>
@@ -6103,13 +6112,13 @@
         <v>1288</v>
       </c>
       <c r="C6" t="s">
-        <v>1637</v>
+        <v>1876</v>
       </c>
       <c r="E6" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1101</v>
       </c>
@@ -6117,13 +6126,13 @@
         <v>1288</v>
       </c>
       <c r="C7" t="s">
-        <v>1637</v>
+        <v>1310</v>
       </c>
       <c r="E7" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>866</v>
       </c>
@@ -6140,7 +6149,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>857</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>962</v>
       </c>
@@ -6171,10 +6180,10 @@
         <v>858</v>
       </c>
       <c r="E10" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>932</v>
       </c>
@@ -6182,16 +6191,16 @@
         <v>1288</v>
       </c>
       <c r="C11" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D11" t="s">
         <v>1769</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1770</v>
       </c>
-      <c r="E11" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>923</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -6225,7 +6234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -6242,7 +6251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>671</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1134</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1137</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>1288</v>
       </c>
       <c r="C19" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D19" t="s">
         <v>1138</v>
@@ -6327,7 +6336,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>565</v>
       </c>
@@ -6344,7 +6353,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>836</v>
       </c>
@@ -6361,7 +6370,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6378,7 +6387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>292</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>937</v>
       </c>
@@ -6420,16 +6429,16 @@
         <v>1288</v>
       </c>
       <c r="C25" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D25" t="s">
         <v>1784</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1785</v>
       </c>
       <c r="E25" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>414</v>
       </c>
@@ -6463,7 +6472,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>435</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1176</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>598</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>797</v>
       </c>
@@ -6531,7 +6540,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>761</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>606</v>
       </c>
@@ -6582,7 +6591,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6599,7 +6608,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>913</v>
       </c>
@@ -6641,16 +6650,16 @@
         <v>1288</v>
       </c>
       <c r="C38" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D38" t="s">
         <v>1735</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1736</v>
       </c>
-      <c r="E38" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>411</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -6718,7 +6727,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>776</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>752</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>568</v>
       </c>
@@ -6769,7 +6778,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>532</v>
       </c>
@@ -6786,7 +6795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>529</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>773</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>574</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -6854,7 +6863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>500</v>
       </c>
@@ -6871,7 +6880,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>794</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>749</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6922,7 +6931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -6936,10 +6945,10 @@
         <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>791</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -6973,7 +6982,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>520</v>
       </c>
@@ -7007,7 +7016,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1228</v>
       </c>
@@ -7024,7 +7033,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1170</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>1288</v>
       </c>
       <c r="C61" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D61" t="s">
         <v>1171</v>
@@ -7041,7 +7050,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>929</v>
       </c>
@@ -7049,16 +7058,16 @@
         <v>1288</v>
       </c>
       <c r="C62" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D62" t="s">
         <v>1765</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>1766</v>
       </c>
-      <c r="E62" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>553</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>544</v>
       </c>
@@ -7092,7 +7101,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1191</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1239</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1071</v>
       </c>
@@ -7143,7 +7152,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>809</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>541</v>
       </c>
@@ -7194,7 +7203,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>403</v>
       </c>
@@ -7202,16 +7211,16 @@
         <v>1288</v>
       </c>
       <c r="C71" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D71" t="s">
         <v>1684</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1685</v>
       </c>
       <c r="E71" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>444</v>
       </c>
@@ -7228,7 +7237,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>307</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>881</v>
       </c>
@@ -7262,7 +7271,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1048</v>
       </c>
@@ -7279,7 +7288,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1146</v>
       </c>
@@ -7296,7 +7305,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>734</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>899</v>
       </c>
@@ -7327,10 +7336,10 @@
         <v>900</v>
       </c>
       <c r="E78" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>737</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>963</v>
       </c>
@@ -7355,16 +7364,16 @@
         <v>1288</v>
       </c>
       <c r="C80" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D80" t="s">
         <v>1829</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>1830</v>
       </c>
-      <c r="E80" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>908</v>
       </c>
@@ -7372,16 +7381,16 @@
         <v>1288</v>
       </c>
       <c r="C81" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D81" t="s">
         <v>1722</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>1723</v>
       </c>
-      <c r="E81" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>955</v>
       </c>
@@ -7389,16 +7398,16 @@
         <v>1288</v>
       </c>
       <c r="C82" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D82" t="s">
         <v>1813</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>1814</v>
       </c>
-      <c r="E82" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>505</v>
       </c>
@@ -7415,7 +7424,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>956</v>
       </c>
@@ -7432,7 +7441,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>728</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -7457,16 +7466,16 @@
         <v>1288</v>
       </c>
       <c r="C86" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D86" t="s">
         <v>1655</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1656</v>
       </c>
       <c r="E86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>767</v>
       </c>
@@ -7483,7 +7492,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>764</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>909</v>
       </c>
@@ -7508,16 +7517,16 @@
         <v>1288</v>
       </c>
       <c r="C89" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D89" t="s">
         <v>1725</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>1726</v>
       </c>
-      <c r="E89" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1037</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1056</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>890</v>
       </c>
@@ -7568,7 +7577,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>827</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>821</v>
       </c>
@@ -7602,7 +7611,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>896</v>
       </c>
@@ -7616,10 +7625,10 @@
         <v>897</v>
       </c>
       <c r="E95" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -7653,7 +7662,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>898</v>
       </c>
@@ -7661,16 +7670,16 @@
         <v>1288</v>
       </c>
       <c r="C98" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D98" t="s">
         <v>1702</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>1703</v>
       </c>
-      <c r="E98" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>921</v>
       </c>
@@ -7678,16 +7687,16 @@
         <v>1288</v>
       </c>
       <c r="C99" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D99" t="s">
         <v>1750</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>1751</v>
       </c>
-      <c r="E99" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>922</v>
       </c>
@@ -7695,16 +7704,16 @@
         <v>1288</v>
       </c>
       <c r="C100" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D100" t="s">
         <v>1753</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>1754</v>
       </c>
-      <c r="E100" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>458</v>
       </c>
@@ -7721,7 +7730,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1131</v>
       </c>
@@ -7738,7 +7747,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -7755,7 +7764,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1093</v>
       </c>
@@ -7772,7 +7781,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>274</v>
       </c>
@@ -7789,7 +7798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>280</v>
       </c>
@@ -7806,7 +7815,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -7823,7 +7832,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -7840,7 +7849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -7874,7 +7883,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>949</v>
       </c>
@@ -7882,16 +7891,16 @@
         <v>1288</v>
       </c>
       <c r="C111" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D111" t="s">
         <v>1804</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>1805</v>
       </c>
-      <c r="E111" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>485</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>461</v>
       </c>
@@ -7925,7 +7934,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1112</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>482</v>
       </c>
@@ -7959,7 +7968,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>559</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>958</v>
       </c>
@@ -7984,16 +7993,16 @@
         <v>1288</v>
       </c>
       <c r="C117" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D117" t="s">
         <v>1816</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>1817</v>
       </c>
-      <c r="E117" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1245</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -8027,7 +8036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1223</v>
       </c>
@@ -8044,7 +8053,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>601</v>
       </c>
@@ -8052,16 +8061,16 @@
         <v>1288</v>
       </c>
       <c r="C121" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D121" t="s">
         <v>1688</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1689</v>
       </c>
       <c r="E121" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>309</v>
       </c>
@@ -8078,7 +8087,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>971</v>
       </c>
@@ -8103,16 +8112,16 @@
         <v>1288</v>
       </c>
       <c r="C124" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D124" t="s">
         <v>1842</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>1843</v>
       </c>
-      <c r="E124" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>304</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -8146,7 +8155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>904</v>
       </c>
@@ -8154,16 +8163,16 @@
         <v>1288</v>
       </c>
       <c r="C127" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D127" t="s">
         <v>1710</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>1711</v>
       </c>
-      <c r="E127" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1045</v>
       </c>
@@ -8180,7 +8189,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -8197,7 +8206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -8214,7 +8223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -8231,7 +8240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1103</v>
       </c>
@@ -8248,7 +8257,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1002</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>907</v>
       </c>
@@ -8273,16 +8282,16 @@
         <v>1288</v>
       </c>
       <c r="C134" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D134" t="s">
         <v>1719</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>1720</v>
       </c>
-      <c r="E134" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>609</v>
       </c>
@@ -8299,7 +8308,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1096</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1260</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1059</v>
       </c>
@@ -8350,7 +8359,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1254</v>
       </c>
@@ -8367,7 +8376,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>244</v>
       </c>
@@ -8384,7 +8393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>429</v>
       </c>
@@ -8401,7 +8410,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>491</v>
       </c>
@@ -8435,7 +8444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1182</v>
       </c>
@@ -8452,7 +8461,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>863</v>
       </c>
@@ -8469,7 +8478,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>912</v>
       </c>
@@ -8483,10 +8492,10 @@
         <v>864</v>
       </c>
       <c r="E146" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1242</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>514</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>842</v>
       </c>
@@ -8537,7 +8546,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>614</v>
       </c>
@@ -8554,7 +8563,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>936</v>
       </c>
@@ -8562,16 +8571,16 @@
         <v>1288</v>
       </c>
       <c r="C151" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D151" t="s">
         <v>1781</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>1782</v>
       </c>
-      <c r="E151" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -8588,7 +8597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>508</v>
       </c>
@@ -8605,7 +8614,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>455</v>
       </c>
@@ -8622,7 +8631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1194</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>746</v>
       </c>
@@ -8656,7 +8665,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>967</v>
       </c>
@@ -8673,7 +8682,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>884</v>
       </c>
@@ -8681,16 +8690,16 @@
         <v>1288</v>
       </c>
       <c r="C158" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D158" t="s">
         <v>1690</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>1691</v>
       </c>
-      <c r="E158" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>662</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>905</v>
       </c>
@@ -8732,16 +8741,16 @@
         <v>1288</v>
       </c>
       <c r="C161" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D161" t="s">
         <v>1713</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>1714</v>
       </c>
-      <c r="E161" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>603</v>
       </c>
@@ -8775,7 +8784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -8792,7 +8801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>954</v>
       </c>
@@ -8800,16 +8809,16 @@
         <v>1288</v>
       </c>
       <c r="C165" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D165" t="s">
         <v>1810</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>1811</v>
       </c>
-      <c r="E165" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1220</v>
       </c>
@@ -8817,7 +8826,7 @@
         <v>1288</v>
       </c>
       <c r="C166" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D166" t="s">
         <v>1221</v>
@@ -8826,7 +8835,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>238</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>452</v>
       </c>
@@ -8860,7 +8869,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>919</v>
       </c>
@@ -8868,16 +8877,16 @@
         <v>1288</v>
       </c>
       <c r="C169" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D169" t="s">
         <v>1744</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>1745</v>
       </c>
-      <c r="E169" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>920</v>
       </c>
@@ -8885,16 +8894,16 @@
         <v>1288</v>
       </c>
       <c r="C170" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D170" t="s">
         <v>1747</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1748</v>
       </c>
-      <c r="E170" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1248</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>617</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>928</v>
       </c>
@@ -8936,16 +8945,16 @@
         <v>1288</v>
       </c>
       <c r="C173" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D173" t="s">
         <v>1762</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>1763</v>
       </c>
-      <c r="E173" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1236</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>1288</v>
       </c>
       <c r="C174" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D174" t="s">
         <v>1237</v>
@@ -8962,7 +8971,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1233</v>
       </c>
@@ -8970,7 +8979,7 @@
         <v>1288</v>
       </c>
       <c r="C175" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D175" t="s">
         <v>1234</v>
@@ -8979,7 +8988,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -8996,7 +9005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>839</v>
       </c>
@@ -9013,7 +9022,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -9030,7 +9039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>253</v>
       </c>
@@ -9047,7 +9056,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1080</v>
       </c>
@@ -9064,7 +9073,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>927</v>
       </c>
@@ -9072,16 +9081,16 @@
         <v>1288</v>
       </c>
       <c r="C181" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D181" t="s">
         <v>1759</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>1760</v>
       </c>
-      <c r="E181" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>473</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>476</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1230</v>
       </c>
@@ -9132,7 +9141,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1125</v>
       </c>
@@ -9149,7 +9158,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9166,7 +9175,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -9183,7 +9192,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1128</v>
       </c>
@@ -9200,7 +9209,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -9208,16 +9217,16 @@
         <v>1288</v>
       </c>
       <c r="C189" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D189" t="s">
         <v>1658</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1659</v>
       </c>
       <c r="E189" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>502</v>
       </c>
@@ -9234,7 +9243,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>950</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -9268,7 +9277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>612</v>
       </c>
@@ -9285,7 +9294,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>538</v>
       </c>
@@ -9302,7 +9311,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1179</v>
       </c>
@@ -9310,7 +9319,7 @@
         <v>1288</v>
       </c>
       <c r="C195" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D195" t="s">
         <v>1180</v>
@@ -9319,7 +9328,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>247</v>
       </c>
@@ -9336,7 +9345,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>939</v>
       </c>
@@ -9344,16 +9353,16 @@
         <v>1288</v>
       </c>
       <c r="C197" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D197" t="s">
         <v>1786</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1787</v>
       </c>
       <c r="E197" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>845</v>
       </c>
@@ -9370,7 +9379,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>731</v>
       </c>
@@ -9404,7 +9413,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1088</v>
       </c>
@@ -9421,7 +9430,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -9438,7 +9447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -9455,7 +9464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -9472,7 +9481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -9506,7 +9515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>63</v>
       </c>
@@ -9523,7 +9532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>988</v>
       </c>
@@ -9540,7 +9549,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>946</v>
       </c>
@@ -9548,16 +9557,16 @@
         <v>1288</v>
       </c>
       <c r="C209" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D209" t="s">
         <v>1799</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>1800</v>
       </c>
-      <c r="E209" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>985</v>
       </c>
@@ -9574,7 +9583,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1263</v>
       </c>
@@ -9591,7 +9600,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>800</v>
       </c>
@@ -9608,7 +9617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>895</v>
       </c>
@@ -9622,10 +9631,10 @@
         <v>801</v>
       </c>
       <c r="E213" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>945</v>
       </c>
@@ -9633,16 +9642,16 @@
         <v>1288</v>
       </c>
       <c r="C214" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D214" t="s">
         <v>1796</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>1797</v>
       </c>
-      <c r="E214" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1275</v>
       </c>
@@ -9659,7 +9668,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>109</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1257</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>818</v>
       </c>
@@ -9710,7 +9719,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>978</v>
       </c>
@@ -9718,16 +9727,16 @@
         <v>1288</v>
       </c>
       <c r="C219" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D219" t="s">
         <v>1858</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>1859</v>
       </c>
-      <c r="E219" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>523</v>
       </c>
@@ -9744,7 +9753,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>914</v>
       </c>
@@ -9752,16 +9761,16 @@
         <v>1288</v>
       </c>
       <c r="C221" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D221" t="s">
         <v>1738</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>1739</v>
       </c>
-      <c r="E221" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>893</v>
       </c>
@@ -9775,10 +9784,10 @@
         <v>894</v>
       </c>
       <c r="E222" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>969</v>
       </c>
@@ -9792,10 +9801,10 @@
         <v>970</v>
       </c>
       <c r="E223" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>977</v>
       </c>
@@ -9803,16 +9812,16 @@
         <v>1288</v>
       </c>
       <c r="C224" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D224" t="s">
         <v>1855</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>1856</v>
       </c>
-      <c r="E224" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1051</v>
       </c>
@@ -9829,7 +9838,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>79</v>
       </c>
@@ -9846,7 +9855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>944</v>
       </c>
@@ -9854,16 +9863,16 @@
         <v>1288</v>
       </c>
       <c r="C227" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D227" t="s">
         <v>1793</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>1794</v>
       </c>
-      <c r="E227" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>743</v>
       </c>
@@ -9880,7 +9889,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1083</v>
       </c>
@@ -9897,7 +9906,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1109</v>
       </c>
@@ -9914,7 +9923,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>72</v>
       </c>
@@ -9931,7 +9940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>869</v>
       </c>
@@ -9948,7 +9957,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>758</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>872</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1272</v>
       </c>
@@ -9999,7 +10008,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>298</v>
       </c>
@@ -10016,7 +10025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1068</v>
       </c>
@@ -10033,7 +10042,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1065</v>
       </c>
@@ -10050,7 +10059,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>517</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -10084,7 +10093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>160</v>
       </c>
@@ -10098,10 +10107,10 @@
         <v>161</v>
       </c>
       <c r="E241" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1152</v>
       </c>
@@ -10118,7 +10127,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1158</v>
       </c>
@@ -10135,7 +10144,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1026</v>
       </c>
@@ -10152,7 +10161,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1269</v>
       </c>
@@ -10169,7 +10178,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>851</v>
       </c>
@@ -10186,7 +10195,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1023</v>
       </c>
@@ -10203,7 +10212,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>626</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1197</v>
       </c>
@@ -10237,7 +10246,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>620</v>
       </c>
@@ -10254,7 +10263,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>148</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>833</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>981</v>
       </c>
@@ -10296,16 +10305,16 @@
         <v>1288</v>
       </c>
       <c r="C253" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D253" t="s">
         <v>1867</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1868</v>
       </c>
-      <c r="E253" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>674</v>
       </c>
@@ -10322,7 +10331,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>926</v>
       </c>
@@ -10330,16 +10339,16 @@
         <v>1288</v>
       </c>
       <c r="C255" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D255" t="s">
         <v>1756</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1757</v>
       </c>
-      <c r="E255" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>145</v>
       </c>
@@ -10356,7 +10365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>426</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>464</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1212</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1143</v>
       </c>
@@ -10424,7 +10433,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>580</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>526</v>
       </c>
@@ -10458,7 +10467,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>556</v>
       </c>
@@ -10475,7 +10484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>47</v>
       </c>
@@ -10492,7 +10501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>982</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1173</v>
       </c>
@@ -10517,7 +10526,7 @@
         <v>1288</v>
       </c>
       <c r="C266" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D266" t="s">
         <v>1174</v>
@@ -10526,7 +10535,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>535</v>
       </c>
@@ -10543,7 +10552,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>994</v>
       </c>
@@ -10551,13 +10560,13 @@
         <v>1288</v>
       </c>
       <c r="C268" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E268" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>953</v>
       </c>
@@ -10565,16 +10574,16 @@
         <v>1288</v>
       </c>
       <c r="C269" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D269" t="s">
         <v>1807</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>1808</v>
       </c>
-      <c r="E269" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>547</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>438</v>
       </c>
@@ -10608,7 +10617,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>935</v>
       </c>
@@ -10616,16 +10625,16 @@
         <v>1288</v>
       </c>
       <c r="C272" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D272" t="s">
         <v>1778</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>1779</v>
       </c>
-      <c r="E272" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>878</v>
       </c>
@@ -10642,7 +10651,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>941</v>
       </c>
@@ -10650,16 +10659,16 @@
         <v>1288</v>
       </c>
       <c r="C274" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D274" t="s">
         <v>1788</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>1789</v>
       </c>
-      <c r="E274" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>933</v>
       </c>
@@ -10667,16 +10676,16 @@
         <v>1288</v>
       </c>
       <c r="C275" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D275" t="s">
         <v>1772</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>1773</v>
       </c>
-      <c r="E275" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10693,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>157</v>
       </c>
@@ -10710,7 +10719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>592</v>
       </c>
@@ -10727,7 +10736,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>860</v>
       </c>
@@ -10744,7 +10753,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1200</v>
       </c>
@@ -10761,7 +10770,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>806</v>
       </c>
@@ -10778,7 +10787,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>91</v>
       </c>
@@ -10795,7 +10804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>401</v>
       </c>
@@ -10812,7 +10821,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1123</v>
       </c>
@@ -10829,7 +10838,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>710</v>
       </c>
@@ -10846,7 +10855,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>87</v>
       </c>
@@ -10854,16 +10863,16 @@
         <v>1288</v>
       </c>
       <c r="C286" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D286" t="s">
         <v>1663</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1664</v>
       </c>
       <c r="E286" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1115</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>1288</v>
       </c>
       <c r="C287" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D287" t="s">
         <v>1116</v>
@@ -10880,7 +10889,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>719</v>
       </c>
@@ -10897,7 +10906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>722</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>707</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>665</v>
       </c>
@@ -10948,7 +10957,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1188</v>
       </c>
@@ -10956,7 +10965,7 @@
         <v>1288</v>
       </c>
       <c r="C292" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D292" t="s">
         <v>1189</v>
@@ -10965,7 +10974,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>218</v>
       </c>
@@ -10982,7 +10991,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>815</v>
       </c>
@@ -10999,7 +11008,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1266</v>
       </c>
@@ -11016,7 +11025,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>975</v>
       </c>
@@ -11024,16 +11033,16 @@
         <v>1288</v>
       </c>
       <c r="C296" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D296" t="s">
         <v>1849</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>1850</v>
       </c>
-      <c r="E296" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>130</v>
       </c>
@@ -11050,7 +11059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1062</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>976</v>
       </c>
@@ -11075,16 +11084,16 @@
         <v>1288</v>
       </c>
       <c r="C299" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D299" t="s">
         <v>1852</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>1853</v>
       </c>
-      <c r="E299" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>915</v>
       </c>
@@ -11092,16 +11101,16 @@
         <v>1288</v>
       </c>
       <c r="C300" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D300" t="s">
         <v>1741</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1742</v>
       </c>
       <c r="E300" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>586</v>
       </c>
@@ -11118,7 +11127,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1149</v>
       </c>
@@ -11135,7 +11144,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1155</v>
       </c>
@@ -11152,7 +11161,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>966</v>
       </c>
@@ -11160,16 +11169,16 @@
         <v>1288</v>
       </c>
       <c r="C304" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D304" t="s">
         <v>1838</v>
       </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
         <v>1839</v>
       </c>
-      <c r="E304" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>782</v>
       </c>
@@ -11186,7 +11195,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1281</v>
       </c>
@@ -11194,7 +11203,7 @@
         <v>1288</v>
       </c>
       <c r="C306" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D306" t="s">
         <v>1282</v>
@@ -11203,7 +11212,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>974</v>
       </c>
@@ -11211,16 +11220,16 @@
         <v>1288</v>
       </c>
       <c r="C307" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D307" t="s">
         <v>1846</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>1847</v>
       </c>
-      <c r="E307" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>583</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>589</v>
       </c>
@@ -11254,7 +11263,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>423</v>
       </c>
@@ -11271,7 +11280,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>494</v>
       </c>
@@ -11288,7 +11297,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1077</v>
       </c>
@@ -11305,7 +11314,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>277</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>50</v>
       </c>
@@ -11339,7 +11348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1086</v>
       </c>
@@ -11356,7 +11365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>550</v>
       </c>
@@ -11373,7 +11382,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>488</v>
       </c>
@@ -11390,7 +11399,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>770</v>
       </c>
@@ -11407,7 +11416,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>289</v>
       </c>
@@ -11424,7 +11433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>479</v>
       </c>
@@ -11441,7 +11450,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>755</v>
       </c>
@@ -11458,7 +11467,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>911</v>
       </c>
@@ -11466,16 +11475,16 @@
         <v>1288</v>
       </c>
       <c r="C322" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D322" t="s">
         <v>1731</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>1732</v>
       </c>
-      <c r="E322" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1020</v>
       </c>
@@ -11483,7 +11492,7 @@
         <v>1288</v>
       </c>
       <c r="C323" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D323" t="s">
         <v>1021</v>
@@ -11492,7 +11501,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1215</v>
       </c>
@@ -11509,7 +11518,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>785</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>947</v>
       </c>
@@ -11534,16 +11543,16 @@
         <v>1288</v>
       </c>
       <c r="C326" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D326" t="s">
         <v>1802</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1803</v>
       </c>
       <c r="E326" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>830</v>
       </c>
@@ -11560,7 +11569,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1106</v>
       </c>
@@ -11594,7 +11603,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>241</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>262</v>
       </c>
@@ -11628,7 +11637,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>996</v>
       </c>
@@ -11645,7 +11654,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>999</v>
       </c>
@@ -11662,7 +11671,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>779</v>
       </c>
@@ -11679,7 +11688,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>848</v>
       </c>
@@ -11696,7 +11705,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1034</v>
       </c>
@@ -11713,7 +11722,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>595</v>
       </c>
@@ -11730,7 +11739,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1029</v>
       </c>
@@ -11747,7 +11756,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1032</v>
       </c>
@@ -11764,7 +11773,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>571</v>
       </c>
@@ -11781,7 +11790,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1218</v>
       </c>
@@ -11798,7 +11807,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>170</v>
       </c>
@@ -11815,7 +11824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>906</v>
       </c>
@@ -11823,16 +11832,16 @@
         <v>1288</v>
       </c>
       <c r="C343" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D343" t="s">
         <v>1716</v>
       </c>
-      <c r="D343" t="s">
+      <c r="E343" t="s">
         <v>1717</v>
       </c>
-      <c r="E343" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -11840,16 +11849,16 @@
         <v>1288</v>
       </c>
       <c r="C344" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D344" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E344" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>89</v>
       </c>
@@ -11857,16 +11866,16 @@
         <v>1288</v>
       </c>
       <c r="C345" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D345" t="s">
         <v>1665</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1666</v>
       </c>
       <c r="E345" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>812</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>142</v>
       </c>
@@ -11900,7 +11909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1014</v>
       </c>
@@ -11917,7 +11926,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1278</v>
       </c>
@@ -11925,7 +11934,7 @@
         <v>1288</v>
       </c>
       <c r="C349" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D349" t="s">
         <v>1279</v>
@@ -11934,7 +11943,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>127</v>
       </c>
@@ -11951,7 +11960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>960</v>
       </c>
@@ -11959,16 +11968,16 @@
         <v>1288</v>
       </c>
       <c r="C351" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D351" t="s">
         <v>1822</v>
       </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>1823</v>
       </c>
-      <c r="E351" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>965</v>
       </c>
@@ -11976,16 +11985,16 @@
         <v>1288</v>
       </c>
       <c r="C352" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D352" t="s">
         <v>1835</v>
       </c>
-      <c r="D352" t="s">
+      <c r="E352" t="s">
         <v>1836</v>
       </c>
-      <c r="E352" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1011</v>
       </c>
@@ -12002,7 +12011,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>885</v>
       </c>
@@ -12010,16 +12019,16 @@
         <v>1288</v>
       </c>
       <c r="C354" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D354" t="s">
         <v>1693</v>
       </c>
-      <c r="D354" t="s">
+      <c r="E354" t="s">
         <v>1694</v>
       </c>
-      <c r="E354" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>221</v>
       </c>
@@ -12036,7 +12045,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>121</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>972</v>
       </c>
@@ -12067,10 +12076,10 @@
         <v>973</v>
       </c>
       <c r="E357" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>934</v>
       </c>
@@ -12078,16 +12087,16 @@
         <v>1288</v>
       </c>
       <c r="C358" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D358" t="s">
         <v>1775</v>
       </c>
-      <c r="D358" t="s">
+      <c r="E358" t="s">
         <v>1776</v>
       </c>
-      <c r="E358" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>194</v>
       </c>
@@ -12104,7 +12113,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1203</v>
       </c>
@@ -12121,7 +12130,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>271</v>
       </c>
@@ -12138,7 +12147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>740</v>
       </c>
@@ -12155,7 +12164,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>824</v>
       </c>
@@ -12172,7 +12181,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>432</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>467</v>
       </c>
@@ -12206,7 +12215,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>942</v>
       </c>
@@ -12214,16 +12223,16 @@
         <v>1288</v>
       </c>
       <c r="C366" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D366" t="s">
         <v>1791</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1792</v>
       </c>
       <c r="E366" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>470</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1040</v>
       </c>
@@ -12274,7 +12283,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>449</v>
       </c>
@@ -12291,7 +12300,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>930</v>
       </c>
@@ -12305,10 +12314,10 @@
         <v>931</v>
       </c>
       <c r="E371" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>961</v>
       </c>
@@ -12316,16 +12325,16 @@
         <v>1288</v>
       </c>
       <c r="C372" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D372" t="s">
         <v>1825</v>
       </c>
-      <c r="D372" t="s">
+      <c r="E372" t="s">
         <v>1826</v>
       </c>
-      <c r="E372" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1225</v>
       </c>
@@ -12342,7 +12351,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>886</v>
       </c>
@@ -12350,16 +12359,16 @@
         <v>1288</v>
       </c>
       <c r="C374" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D374" t="s">
         <v>1696</v>
       </c>
-      <c r="D374" t="s">
+      <c r="E374" t="s">
         <v>1697</v>
       </c>
-      <c r="E374" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>94</v>
       </c>
@@ -12376,7 +12385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1005</v>
       </c>
@@ -12393,7 +12402,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1120</v>
       </c>
@@ -12410,7 +12419,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1008</v>
       </c>
@@ -12427,7 +12436,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1117</v>
       </c>
@@ -12444,7 +12453,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>185</v>
       </c>
@@ -12461,7 +12470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>875</v>
       </c>
@@ -12478,7 +12487,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>441</v>
       </c>
@@ -12495,7 +12504,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>623</v>
       </c>
@@ -12512,7 +12521,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -12529,7 +12538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>903</v>
       </c>
@@ -12537,16 +12546,16 @@
         <v>1288</v>
       </c>
       <c r="C385" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D385" t="s">
         <v>1707</v>
       </c>
-      <c r="D385" t="s">
+      <c r="E385" t="s">
         <v>1708</v>
       </c>
-      <c r="E385" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>788</v>
       </c>
@@ -12563,7 +12572,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>112</v>
       </c>
@@ -12580,7 +12589,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>319</v>
       </c>
@@ -12597,7 +12606,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>77</v>
       </c>
@@ -12605,16 +12614,16 @@
         <v>1288</v>
       </c>
       <c r="C389" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D389" t="s">
         <v>1660</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1661</v>
       </c>
       <c r="E389" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>713</v>
       </c>
@@ -12631,7 +12640,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>301</v>
       </c>
@@ -12648,7 +12657,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>959</v>
       </c>
@@ -12656,16 +12665,16 @@
         <v>1288</v>
       </c>
       <c r="C392" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D392" t="s">
         <v>1819</v>
       </c>
-      <c r="D392" t="s">
+      <c r="E392" t="s">
         <v>1820</v>
       </c>
-      <c r="E392" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>910</v>
       </c>
@@ -12673,16 +12682,16 @@
         <v>1288</v>
       </c>
       <c r="C393" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D393" t="s">
         <v>1728</v>
       </c>
-      <c r="D393" t="s">
+      <c r="E393" t="s">
         <v>1729</v>
       </c>
-      <c r="E393" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>901</v>
       </c>
@@ -12696,10 +12705,10 @@
         <v>902</v>
       </c>
       <c r="E394" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>917</v>
       </c>
@@ -12713,10 +12722,10 @@
         <v>918</v>
       </c>
       <c r="E395" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>964</v>
       </c>
@@ -12724,16 +12733,16 @@
         <v>1288</v>
       </c>
       <c r="C396" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D396" t="s">
         <v>1832</v>
       </c>
-      <c r="D396" t="s">
+      <c r="E396" t="s">
         <v>1833</v>
       </c>
-      <c r="E396" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1251</v>
       </c>
@@ -12750,7 +12759,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>803</v>
       </c>
@@ -12767,7 +12776,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>577</v>
       </c>
@@ -12784,7 +12793,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>179</v>
       </c>
@@ -12801,7 +12810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -12818,7 +12827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>136</v>
       </c>
@@ -12835,7 +12844,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>701</v>
       </c>
@@ -12852,7 +12861,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>704</v>
       </c>
@@ -12869,7 +12878,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>686</v>
       </c>
@@ -12886,7 +12895,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>689</v>
       </c>
@@ -12903,7 +12912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>725</v>
       </c>
@@ -12920,7 +12929,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>677</v>
       </c>
@@ -12937,7 +12946,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>680</v>
       </c>
@@ -12954,7 +12963,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>695</v>
       </c>
@@ -12971,7 +12980,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>698</v>
       </c>
@@ -12988,7 +12997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>716</v>
       </c>
@@ -13005,7 +13014,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>692</v>
       </c>
@@ -13022,7 +13031,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>683</v>
       </c>
@@ -13039,7 +13048,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1206</v>
       </c>
@@ -13047,7 +13056,7 @@
         <v>1288</v>
       </c>
       <c r="C415" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D415" t="s">
         <v>1207</v>
@@ -13056,7 +13065,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>215</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>562</v>
       </c>
@@ -13090,7 +13099,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>447</v>
       </c>
@@ -13098,16 +13107,16 @@
         <v>1288</v>
       </c>
       <c r="C418" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D418" t="s">
         <v>1686</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1687</v>
       </c>
       <c r="E418" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>979</v>
       </c>
@@ -13115,16 +13124,16 @@
         <v>1288</v>
       </c>
       <c r="C419" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D419" t="s">
         <v>1861</v>
       </c>
-      <c r="D419" t="s">
+      <c r="E419" t="s">
         <v>1862</v>
       </c>
-      <c r="E419" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1167</v>
       </c>
@@ -13141,7 +13150,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>991</v>
       </c>
@@ -13158,7 +13167,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>980</v>
       </c>
@@ -13166,16 +13175,16 @@
         <v>1288</v>
       </c>
       <c r="C422" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D422" t="s">
         <v>1864</v>
       </c>
-      <c r="D422" t="s">
+      <c r="E422" t="s">
         <v>1865</v>
       </c>
-      <c r="E422" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>265</v>
       </c>
@@ -13192,7 +13201,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1074</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>259</v>
       </c>
@@ -13226,7 +13235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>417</v>
       </c>
@@ -13243,7 +13252,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1185</v>
       </c>
@@ -13251,7 +13260,7 @@
         <v>1288</v>
       </c>
       <c r="C427" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D427" t="s">
         <v>1186</v>
@@ -13260,7 +13269,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1209</v>
       </c>
@@ -13268,7 +13277,7 @@
         <v>1288</v>
       </c>
       <c r="C428" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D428" t="s">
         <v>1210</v>
@@ -13277,7 +13286,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -13294,7 +13303,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>887</v>
       </c>
@@ -13311,7 +13320,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>173</v>
       </c>
@@ -13328,7 +13337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>29</v>
       </c>
@@ -13345,7 +13354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1140</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1017</v>
       </c>
@@ -13379,7 +13388,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1164</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1161</v>
       </c>
@@ -13413,7 +13422,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>668</v>
       </c>
@@ -13430,7 +13439,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>118</v>
       </c>
@@ -13447,7 +13456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>331</v>
       </c>
@@ -13464,7 +13473,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>325</v>
       </c>
@@ -13481,7 +13490,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>82</v>
       </c>
@@ -13495,10 +13504,10 @@
         <v>83</v>
       </c>
       <c r="E441" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>328</v>
       </c>
@@ -13515,7 +13524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>346</v>
       </c>
@@ -13532,7 +13541,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>349</v>
       </c>
@@ -13549,7 +13558,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>315</v>
       </c>
@@ -13557,16 +13566,16 @@
         <v>1289</v>
       </c>
       <c r="C445" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D445" t="s">
         <v>1670</v>
       </c>
-      <c r="D445" t="s">
+      <c r="E445" t="s">
         <v>1671</v>
       </c>
-      <c r="E445" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>352</v>
       </c>
@@ -13583,7 +13592,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>334</v>
       </c>
@@ -13600,7 +13609,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>103</v>
       </c>
@@ -13617,7 +13626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>641</v>
       </c>
@@ -13634,7 +13643,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>322</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>343</v>
       </c>
@@ -13668,7 +13677,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>629</v>
       </c>
@@ -13685,7 +13694,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>340</v>
       </c>
@@ -13702,7 +13711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>337</v>
       </c>
@@ -13719,7 +13728,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>209</v>
       </c>
@@ -13736,7 +13745,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>632</v>
       </c>
@@ -13753,7 +13762,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>358</v>
       </c>
@@ -13770,7 +13779,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>355</v>
       </c>
@@ -13787,7 +13796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>361</v>
       </c>
@@ -13804,7 +13813,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>391</v>
       </c>
@@ -13821,7 +13830,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>372</v>
       </c>
@@ -13838,7 +13847,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>653</v>
       </c>
@@ -13855,7 +13864,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>224</v>
       </c>
@@ -13869,10 +13878,10 @@
         <v>225</v>
       </c>
       <c r="E463" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>395</v>
       </c>
@@ -13889,7 +13898,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>650</v>
       </c>
@@ -13906,7 +13915,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>647</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>364</v>
       </c>
@@ -13937,10 +13946,10 @@
         <v>365</v>
       </c>
       <c r="E467" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>394</v>
       </c>
@@ -13948,16 +13957,16 @@
         <v>1290</v>
       </c>
       <c r="C468" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D468" t="s">
         <v>1677</v>
       </c>
-      <c r="D468" t="s">
+      <c r="E468" t="s">
         <v>1678</v>
       </c>
-      <c r="E468" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>385</v>
       </c>
@@ -13974,7 +13983,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>384</v>
       </c>
@@ -13982,16 +13991,16 @@
         <v>1290</v>
       </c>
       <c r="C470" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D470" t="s">
         <v>1674</v>
       </c>
-      <c r="D470" t="s">
+      <c r="E470" t="s">
         <v>1675</v>
       </c>
-      <c r="E470" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>378</v>
       </c>
@@ -14008,7 +14017,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>381</v>
       </c>
@@ -14025,7 +14034,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>366</v>
       </c>
@@ -14042,7 +14051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>375</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>388</v>
       </c>
@@ -14076,7 +14085,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>286</v>
       </c>
@@ -14093,7 +14102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>369</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>644</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1285</v>
       </c>
@@ -14135,7 +14144,7 @@
         <v>1295</v>
       </c>
       <c r="C479" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D479" t="s">
         <v>1286</v>
@@ -14144,7 +14153,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1284</v>
       </c>
@@ -14152,16 +14161,16 @@
         <v>1294</v>
       </c>
       <c r="C480" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D480" t="s">
         <v>1870</v>
       </c>
-      <c r="D480" t="s">
+      <c r="E480" t="s">
         <v>1871</v>
       </c>
-      <c r="E480" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>399</v>
       </c>
@@ -14175,10 +14184,10 @@
         <v>400</v>
       </c>
       <c r="E481" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>398</v>
       </c>
@@ -14186,16 +14195,16 @@
         <v>1292</v>
       </c>
       <c r="C482" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D482" t="s">
         <v>1680</v>
       </c>
-      <c r="D482" t="s">
+      <c r="E482" t="s">
         <v>1681</v>
       </c>
-      <c r="E482" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>635</v>
       </c>
@@ -14212,7 +14221,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>638</v>
       </c>
@@ -14229,7 +14238,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>659</v>
       </c>
@@ -14246,7 +14255,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>656</v>
       </c>

--- a/PTBR/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR/Lang/PTBR/Game/Word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A9BDE-A4D3-4848-B30A-EAAF0999F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F780799-259E-44E3-88FE-32FB26BBF740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Word" sheetId="1" r:id="rId1"/>
@@ -6035,7 +6035,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
